--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:50 AM</t>
+    <t>Saturday, 31 May, 2025 9:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -44,25 +44,79 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
     <t>18.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Saturday, 31 May, 2025 9:54 AM</t>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 31 May, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +778,170 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
         <v>18</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
         <v>19</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>27</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>32</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>109.73</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +955,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -77,6 +77,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -104,9 +125,6 @@
     <t>مجموعه برد</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -116,7 +134,19 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:58 AM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 31 May, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -823,7 +853,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -833,14 +863,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -849,14 +879,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -866,14 +896,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -882,66 +912,165 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>109.73</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>26</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>38</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>38</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>211.72999999999999</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>46</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>47</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1104,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -86,12 +86,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -122,6 +131,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -146,7 +164,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:00 AM</t>
+    <t>Saturday, 31 May, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -919,7 +937,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -929,11 +947,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -945,14 +963,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -962,14 +980,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -978,31 +996,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1011,66 +1029,132 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>211.72999999999999</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>44</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>47</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>44</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>431.73000000000002</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1119,10 +1203,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -80,18 +80,18 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>24.0000</t>
   </si>
   <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -164,7 +164,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:01 AM</t>
+    <t>Saturday, 31 May, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -871,7 +871,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -881,14 +881,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -897,14 +897,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -937,7 +937,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1036,7 +1036,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1069,7 +1069,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="P17" s="13">
-        <v>431.73000000000002</v>
+        <v>443.73000000000002</v>
       </c>
       <c r="Q17" s="13"/>
     </row>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -80,18 +80,18 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -164,7 +164,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:03 AM</t>
+    <t>Saturday, 31 May, 2025 10:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -871,7 +871,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -881,11 +881,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -897,14 +897,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -937,7 +937,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1036,7 +1036,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1069,7 +1069,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -140,6 +140,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -164,7 +176,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:15 AM</t>
+    <t>Saturday, 31 May, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1069,13 +1081,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1086,7 +1098,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1102,13 +1114,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1123,38 +1135,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>443.73000000000002</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>48</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>495.73000000000002</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>57</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1258,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -176,7 +176,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:16 AM</t>
+    <t>Saturday, 31 May, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -176,7 +176,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:50 AM</t>
+    <t>Saturday, 31 May, 2025 10:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -86,6 +95,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
@@ -131,6 +149,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>RYLTRIS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -155,9 +185,6 @@
     <t>مجموعه برد</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>8.00</t>
   </si>
   <si>
@@ -176,7 +203,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:52 AM</t>
+    <t>Saturday, 31 May, 2025 10:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -883,7 +910,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -916,7 +943,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -926,11 +953,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -942,14 +969,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -959,14 +986,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -975,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -992,11 +1019,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1008,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1025,14 +1052,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1041,14 +1068,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1058,11 +1085,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1074,14 +1101,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1091,14 +1118,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1107,28 +1134,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1140,66 +1167,165 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>495.73000000000002</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>55</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>57</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>32</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>47</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>58</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>47</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>821.73000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1263,10 +1389,25 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>52.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>مجموعه برد</t>
@@ -1240,7 +1252,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1250,11 +1262,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1266,14 +1278,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1294,38 +1306,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>821.73000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>64</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>47</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>66</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>841.73000000000002</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>69</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>70</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1449,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:56 AM</t>
+    <t>Saturday, 31 May, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -86,6 +98,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -95,6 +119,27 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -137,6 +182,24 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -146,9 +209,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>RYLTRIS</t>
   </si>
   <si>
@@ -182,6 +242,24 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -215,7 +293,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:59 AM</t>
+    <t>Saturday, 31 May, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -906,7 +984,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -915,14 +993,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -939,7 +1017,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -948,14 +1026,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -965,11 +1043,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -981,14 +1059,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -998,14 +1076,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1014,14 +1092,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1031,11 +1109,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1047,14 +1125,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1064,14 +1142,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1080,14 +1158,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1097,14 +1175,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1113,14 +1191,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1137,7 +1215,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1153,13 +1231,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1186,7 +1264,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1236,7 +1314,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1252,21 +1330,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1278,28 +1356,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1311,66 +1389,330 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>47</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
         <v>67</v>
       </c>
-      <c t="s" r="Q21" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>841.73000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>70</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>47</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>47</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>67</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>80</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>47</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>67</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>81</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>83</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>84</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>67</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>85</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>67</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>91</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>67</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>92</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1018.25</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>94</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>95</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>96</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1454,10 +1796,50 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -191,15 +191,21 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -293,7 +299,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 11:37 AM</t>
+    <t>Saturday, 31 May, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1363,7 +1369,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1373,11 +1379,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1389,14 +1395,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1406,14 +1412,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1422,31 +1428,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,7 +1461,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1468,15 +1474,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1488,14 +1494,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1505,14 +1511,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1521,31 +1527,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1554,7 +1560,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1567,18 +1573,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,28 +1593,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1620,28 +1626,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1653,66 +1659,99 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>93</v>
       </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1018.25</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>69</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>94</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1041.25</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
         <v>96</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>97</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>98</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1836,10 +1875,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -299,7 +299,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 11:39 AM</t>
+    <t>Saturday, 31 May, 2025 11:47 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -299,7 +299,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 11:47 AM</t>
+    <t>Saturday, 31 May, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 250MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>26.7300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
@@ -206,6 +218,15 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>OMEZ 10MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -272,12 +293,6 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -299,7 +314,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 11:53 AM</t>
+    <t>Saturday, 31 May, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1054,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1049,14 +1064,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1065,14 +1080,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1105,7 +1120,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1115,11 +1130,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1131,14 +1146,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1155,7 +1170,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1171,7 +1186,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1181,11 +1196,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1197,14 +1212,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1214,11 +1229,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1230,14 +1245,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1254,7 +1269,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1270,7 +1285,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1280,11 +1295,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1296,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1336,7 +1351,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1346,11 +1361,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1362,14 +1377,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1402,7 +1417,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1412,11 +1427,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1428,14 +1443,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1445,14 +1460,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1461,20 +1476,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1485,7 +1500,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1501,7 +1516,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1511,14 +1526,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1534,13 +1549,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1551,7 +1566,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1567,13 +1582,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1584,7 +1599,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1600,24 +1615,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1626,20 +1641,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1650,7 +1665,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1666,13 +1681,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1705,53 +1720,119 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>94</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>51</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>76</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>95</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1041.25</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>97</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>98</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>76</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>99</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1071.25</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>102</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>103</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1880,10 +1961,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -161,6 +170,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
@@ -269,6 +287,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -281,12 +308,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -308,13 +329,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 31 May, 2025 12:02 PM</t>
+    <t>Saturday, 31 May, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1120,7 +1135,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1130,11 +1145,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1146,14 +1161,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1186,7 +1201,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1196,14 +1211,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1212,14 +1227,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1252,7 +1267,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1285,7 +1300,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1295,14 +1310,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1311,14 +1326,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1328,14 +1343,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1344,14 +1359,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1361,11 +1376,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1377,14 +1392,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1394,11 +1409,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1410,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1427,11 +1442,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1443,14 +1458,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1460,11 +1475,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1476,14 +1491,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1493,14 +1508,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1509,14 +1524,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1526,14 +1541,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1549,24 +1564,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1575,14 +1590,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1596,10 +1611,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1608,31 +1623,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1641,31 +1656,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1674,20 +1689,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1698,7 +1713,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1714,21 +1729,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1740,31 +1755,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1773,66 +1788,165 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>100</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1071.25</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>82</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>23</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>101</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>57</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>82</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>102</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>104</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>105</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>82</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>34</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1126.53</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>106</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>107</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>108</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2085,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -239,9 +248,6 @@
     <t>OMEZ 10MG 14 CAPS.</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -254,6 +260,18 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>RYLTRIS</t>
   </si>
   <si>
@@ -329,7 +347,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 12:26 PM</t>
+    <t>Saturday, 31 May, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1498,7 +1516,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,11 +1526,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,11 +1559,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1557,7 +1575,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1574,14 +1592,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1597,7 +1615,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1607,11 +1625,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1623,31 +1641,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1673,14 +1691,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1689,31 +1707,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,7 +1740,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1735,15 +1753,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1755,20 +1773,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1779,7 +1797,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1801,15 +1819,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1821,31 +1839,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1854,7 +1872,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1867,15 +1885,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1887,66 +1905,132 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>107</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>57</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>88</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>108</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>110</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>111</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>88</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>34</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1126.53</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>106</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>107</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>108</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1173.25</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2100,10 +2184,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -347,7 +356,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 12:57 PM</t>
+    <t>Saturday, 31 May, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1582,7 +1591,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,7 +1617,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,11 +1667,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1695,7 +1704,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1707,31 +1716,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,7 +1749,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1753,7 +1762,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1780,7 +1789,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,20 +1815,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1830,7 +1839,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1852,7 +1861,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1863,7 +1872,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1885,18 +1894,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,28 +1914,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1938,28 +1947,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1978,59 +1987,92 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>113</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>114</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>91</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>34</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1173.25</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>112</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>113</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>114</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1198.25</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>115</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>116</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>117</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2236,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -140,6 +140,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -284,9 +299,6 @@
     <t>RYLTRIS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>230.00</t>
   </si>
   <si>
@@ -356,7 +368,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 1:26 PM</t>
+    <t>Saturday, 31 May, 2025 2:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,18 +1279,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1287,14 +1299,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1304,11 +1316,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1320,14 +1332,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1337,11 +1349,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1353,14 +1365,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1370,14 +1382,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1386,14 +1398,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1403,14 +1415,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1419,14 +1431,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,11 +1448,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1452,14 +1464,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1469,11 +1481,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1502,11 +1514,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1535,11 +1547,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1551,14 +1563,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1568,11 +1580,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1584,14 +1596,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1601,14 +1613,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1617,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1650,7 +1662,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1667,14 +1679,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1683,14 +1695,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1700,11 +1712,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1733,11 +1745,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1749,31 +1761,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,28 +1794,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1839,7 +1851,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1855,24 +1867,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,31 +1893,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1914,31 +1926,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1947,28 +1959,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1980,28 +1992,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2013,66 +2025,99 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>117</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>118</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>45</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>34</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1198.25</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
-        <v>115</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
-        <v>116</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
-        <v>117</v>
-      </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1210.25</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>119</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>120</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>121</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2241,10 +2286,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -368,7 +377,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 2:52 PM</t>
+    <t>Saturday, 31 May, 2025 3:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1306,7 +1315,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1316,11 +1325,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1332,14 +1341,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1372,7 +1381,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1405,7 +1414,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1415,14 +1424,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1448,14 +1457,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1464,14 +1473,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1504,7 +1513,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,11 +1523,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1570,7 +1579,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1603,7 +1612,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1613,11 +1622,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1629,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1653,7 +1662,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1669,7 +1678,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,14 +1688,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1695,7 +1704,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,11 +1754,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1782,7 +1791,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1794,20 +1803,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1818,7 +1827,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1834,13 +1843,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1867,7 +1876,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,20 +1902,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1917,7 +1926,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1950,7 +1959,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2009,11 +2018,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2042,11 +2051,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2065,7 +2074,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2075,49 +2084,82 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>121</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>45</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>34</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1210.25</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>119</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>120</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>121</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1231.04</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>122</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>123</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>124</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2291,10 +2333,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -377,7 +377,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 3:35 PM</t>
+    <t>Saturday, 31 May, 2025 3:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -333,6 +342,15 @@
   </si>
   <si>
     <t>52.0000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -1414,7 +1432,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1447,7 +1465,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,14 +1475,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1546,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,11 +1574,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1612,7 +1630,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1645,7 +1663,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,11 +1673,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1695,7 +1713,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1711,7 +1729,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,7 +1755,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1754,14 +1772,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,11 +1805,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -1824,7 +1842,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1836,20 +1854,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1860,7 +1878,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1876,13 +1894,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1909,7 +1927,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1935,20 +1953,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1959,7 +1977,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1975,13 +1993,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1992,7 +2010,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2008,7 +2026,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,11 +2036,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2084,11 +2102,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2117,49 +2135,115 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
         <v>35</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1231.04</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>122</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>123</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>68</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>45</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>124</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>126</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>127</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>45</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>34</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1294.54</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>128</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>129</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>130</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2338,10 +2422,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -134,6 +134,9 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -395,7 +395,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 3:36 PM</t>
+    <t>Saturday, 31 May, 2025 3:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1267,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1277,11 +1277,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1293,28 +1293,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1343,11 +1343,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1359,14 +1359,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1376,11 +1376,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1442,11 +1442,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1475,11 +1475,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1491,14 +1491,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>27</v>
@@ -1524,14 +1524,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1564,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1894,13 +1894,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1927,7 +1927,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2026,13 +2026,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2059,13 +2059,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2092,13 +2092,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2131,7 +2131,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2158,13 +2158,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2197,7 +2197,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 3:37 PM</t>
+    <t>Saturday, 31 May, 2025 3:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>35.6400</t>
+  </si>
+  <si>
+    <t>DELTASONE 0.75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>7.9200</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -1399,7 +1405,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1409,11 +1415,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>25</v>
@@ -1425,14 +1431,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,11 +1448,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>25</v>
@@ -1458,14 +1464,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1475,11 +1481,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>25</v>
@@ -1491,14 +1497,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1508,14 +1514,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1530,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,14 +1547,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,7 +1563,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1574,11 +1580,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1590,14 +1596,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1607,11 +1613,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1623,14 +1629,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,11 +1646,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1656,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,11 +1679,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,11 +1712,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1722,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,14 +1745,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1755,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1772,14 +1778,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,7 +1794,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1805,14 +1811,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1828,7 +1834,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,11 +1844,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -1854,14 +1860,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,11 +1877,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -1887,31 +1893,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,7 +1926,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1933,15 +1939,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1953,14 +1959,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,14 +1976,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,14 +1992,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2003,14 +2009,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2019,31 +2025,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,7 +2058,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2069,14 +2075,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,7 +2091,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2102,14 +2108,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2135,11 +2141,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2158,7 +2164,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2168,11 +2174,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2184,14 +2190,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2201,49 +2207,82 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>129</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>46</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>34</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1294.54</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>128</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>129</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1302.46</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>130</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2432,10 +2471,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 3:49 PM</t>
+    <t>Saturday, 31 May, 2025 5:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>GLYCODAL 30 CHEW. TAB</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -365,21 +374,21 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -401,7 +410,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 5:01 PM</t>
+    <t>Saturday, 31 May, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,7 +1612,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1620,7 +1629,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1646,11 +1655,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1702,7 +1711,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1735,7 +1744,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,11 +1754,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1785,7 +1794,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,14 +1820,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1827,7 +1836,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -1914,7 +1923,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -1926,20 +1935,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1950,7 +1959,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1972,7 +1981,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1999,7 +2008,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2049,7 +2058,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2065,13 +2074,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2082,7 +2091,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2115,7 +2124,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2141,14 +2150,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2174,11 +2183,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2190,14 +2199,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2207,11 +2216,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2230,7 +2239,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2240,49 +2249,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>132</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>46</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>34</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>35</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1302.46</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>130</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>131</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>132</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1324.27</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>133</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>134</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>135</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2518,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 250MG 20 TAB</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -278,6 +287,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
@@ -410,7 +425,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 5:22 PM</t>
+    <t>Saturday, 31 May, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1134,7 +1149,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1143,14 +1158,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1160,14 +1175,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1183,7 +1198,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1193,14 +1208,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1209,7 +1224,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1226,11 +1241,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1242,14 +1257,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1315,21 +1330,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1341,20 +1356,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1365,7 +1380,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1381,7 +1396,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1391,14 +1406,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1407,14 +1422,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1424,14 +1439,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1440,14 +1455,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1457,14 +1472,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1480,7 +1495,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1497,7 +1512,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1513,7 +1528,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1530,7 +1545,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1546,7 +1561,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1556,14 +1571,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1579,7 +1594,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1589,14 +1604,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1612,7 +1627,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1629,7 +1644,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1645,7 +1660,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1662,7 +1677,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1678,7 +1693,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1688,11 +1703,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1704,14 +1719,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1744,7 +1759,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1777,7 +1792,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,11 +1802,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1803,14 +1818,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,14 +1835,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1836,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,11 +1868,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1869,14 +1884,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1886,14 +1901,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1917,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,14 +1934,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1942,7 +1957,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,14 +1967,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1968,31 +1983,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2001,14 +2016,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2018,14 +2033,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2034,31 +2049,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2067,14 +2082,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2084,14 +2099,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,28 +2115,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2133,31 +2148,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2173,24 +2188,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2199,31 +2214,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2232,24 +2247,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2278,53 +2293,119 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1324.27</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>133</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>22</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>49</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
         <v>134</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>137</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>49</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>38</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1525.27</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>138</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>139</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>140</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2523,10 +2604,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -398,6 +410,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -416,16 +431,13 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 5:24 PM</t>
+    <t>Saturday, 31 May, 2025 5:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1231,7 +1243,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1241,14 +1253,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1257,7 +1269,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1274,11 +1286,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1290,14 +1302,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1330,7 +1342,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1340,11 +1352,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1356,28 +1368,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1389,31 +1401,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1422,14 +1434,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1462,7 +1474,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1472,11 +1484,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>29</v>
@@ -1488,14 +1500,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1505,11 +1517,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>29</v>
@@ -1521,14 +1533,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1538,11 +1550,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>29</v>
@@ -1554,14 +1566,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1571,11 +1583,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>29</v>
@@ -1587,14 +1599,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1604,14 +1616,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1620,14 +1632,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1637,14 +1649,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,14 +1665,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1670,14 +1682,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,14 +1698,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1703,14 +1715,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1719,14 +1731,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1759,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,11 +1781,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1785,14 +1797,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,11 +1814,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1818,7 +1830,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1835,11 +1847,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1851,14 +1863,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1868,7 +1880,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1891,7 +1903,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1901,14 +1913,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1917,14 +1929,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1934,14 +1946,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1950,7 +1962,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1967,14 +1979,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2000,11 +2012,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2033,11 +2045,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>29</v>
@@ -2056,24 +2068,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,7 +2094,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2095,15 +2107,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2139,7 +2151,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2155,7 +2167,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2165,14 +2177,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2181,31 +2193,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2214,7 +2226,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2227,18 +2239,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2247,7 +2259,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2260,18 +2272,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2280,28 +2292,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2313,28 +2325,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2346,66 +2358,99 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1525.27</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>138</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>139</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>140</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>141</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>53</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>42</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1539.75</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>142</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>143</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>144</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2614,10 +2659,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -293,9 +302,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -332,9 +338,6 @@
     <t>OMEZ 10MG 14 CAPS.</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -437,7 +440,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 5:32 PM</t>
+    <t>Saturday, 31 May, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1128,7 +1131,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1161,7 +1164,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1194,7 +1197,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1203,14 +1206,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1220,14 +1223,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1236,14 +1239,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1253,14 +1256,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1269,14 +1272,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1309,7 +1312,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1326,7 +1329,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1342,7 +1345,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1352,14 +1355,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1368,14 +1371,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1392,7 +1395,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1408,24 +1411,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1434,20 +1437,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1458,7 +1461,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1474,7 +1477,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1484,14 +1487,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1500,14 +1503,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1517,14 +1520,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1533,14 +1536,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1550,14 +1553,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1573,7 +1576,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1590,7 +1593,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1606,7 +1609,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1623,7 +1626,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1639,7 +1642,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1649,14 +1652,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1672,7 +1675,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1682,14 +1685,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1705,7 +1708,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1722,7 +1725,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1738,7 +1741,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1771,7 +1774,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1781,14 +1784,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1797,14 +1800,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1821,7 +1824,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1837,7 +1840,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1854,7 +1857,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1870,7 +1873,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1880,14 +1883,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1903,7 +1906,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,14 +1916,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1929,14 +1932,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1946,14 +1949,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1962,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,11 +1982,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1995,14 +1998,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,14 +2015,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2035,7 +2038,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2045,14 +2048,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2061,14 +2064,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,14 +2081,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2094,28 +2097,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2127,31 +2130,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2160,14 +2163,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2177,14 +2180,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2193,14 +2196,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2210,14 +2213,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,31 +2229,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,31 +2262,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2292,31 +2295,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2325,31 +2328,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2358,31 +2361,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2391,66 +2394,99 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1539.75</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>141</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>142</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>56</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>45</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1559.75</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>143</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
         <v>144</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>145</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2664,10 +2700,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -305,6 +305,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
   </si>
   <si>
@@ -371,9 +383,6 @@
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -404,9 +413,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -422,6 +428,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>فرش اسنان اورال بي</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -440,7 +455,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 5:42 PM</t>
+    <t>Saturday, 31 May, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1921,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,14 +1931,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1949,7 +1964,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1972,7 +1987,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1982,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1998,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2015,14 +2030,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2031,7 +2046,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2048,14 +2063,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2064,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2081,11 +2096,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2097,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2114,11 +2129,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2137,24 +2152,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2163,7 +2178,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2176,15 +2191,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,14 +2228,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2229,14 +2244,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2253,7 +2268,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2269,13 +2284,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2286,7 +2301,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,10 +2331,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,7 +2343,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2345,14 +2360,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2368,7 +2383,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2378,11 +2393,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2401,7 +2416,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2415,7 +2430,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2444,49 +2459,115 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>144</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>26</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>56</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>145</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>147</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>56</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>45</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1559.75</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>143</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>144</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
-        <v>145</v>
-      </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1630.75</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>148</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>149</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>150</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2705,10 +2786,20 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -407,6 +407,18 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -455,7 +467,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 6:14 PM</t>
+    <t>Saturday, 31 May, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2317,7 +2329,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,7 +2355,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,7 +2388,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2426,11 +2438,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2459,11 +2471,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2492,11 +2504,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2525,49 +2537,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>150</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>151</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>56</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>45</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1630.75</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>148</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>149</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>150</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1770.75</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>152</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>153</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>154</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2796,10 +2841,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -242,6 +251,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -386,6 +404,12 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -467,7 +491,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 6:18 PM</t>
+    <t>Saturday, 31 May, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1636,7 +1660,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1669,7 +1693,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1702,7 +1726,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,14 +1736,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1752,7 +1776,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1768,7 +1792,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1778,14 +1802,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1834,7 +1858,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,14 +1868,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,11 +1901,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1893,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1910,11 +1934,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1926,14 +1950,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1950,7 +1974,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1976,7 +2000,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2016,7 +2040,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2032,7 +2056,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,14 +2066,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,11 +2099,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,11 +2132,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2190,20 +2214,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2211,10 +2235,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2256,20 +2280,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2280,7 +2304,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2296,7 +2320,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,31 +2346,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,28 +2379,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2388,31 +2412,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,11 +2462,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2454,14 +2478,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,14 +2495,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2494,7 +2518,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2520,7 +2544,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2537,11 +2561,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2570,49 +2594,148 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
         <v>46</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1770.75</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>152</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>153</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>154</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>155</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>56</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>31</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>26</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>56</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>157</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>158</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>159</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>56</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>45</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>1869.75</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>160</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>161</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>162</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2846,10 +2969,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -431,6 +440,18 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -455,43 +476,46 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورال بي</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>فرش اسنان اورال بي</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 6:27 PM</t>
+    <t>Saturday, 31 May, 2025 6:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2000,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2016,14 +2040,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2033,14 +2057,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2073,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,14 +2090,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2082,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,11 +2123,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2139,7 +2163,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2155,7 +2179,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,14 +2189,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2181,7 +2205,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2198,14 +2222,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,11 +2255,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2268,7 +2292,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2280,20 +2304,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2304,7 +2328,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2326,15 +2350,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2346,7 +2370,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2363,14 +2387,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2400,10 +2424,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2436,7 +2460,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2452,24 +2476,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,20 +2502,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2499,10 +2523,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2544,7 +2568,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2561,14 +2585,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,14 +2618,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2627,11 +2651,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2660,11 +2684,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2693,49 +2717,115 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>163</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>26</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>56</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>164</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>166</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>167</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>56</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>45</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>1869.75</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>160</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>161</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>162</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>1907.9100000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>168</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>169</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>170</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2984,10 +3074,20 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -405,6 +405,15 @@
   </si>
   <si>
     <t>230.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
   </si>
   <si>
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
@@ -2377,7 +2386,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2403,7 +2412,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2457,10 +2466,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2493,7 +2502,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2509,7 +2518,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,11 +2528,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2535,31 +2544,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2589,10 +2598,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,7 +2610,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2684,7 +2693,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2707,7 +2716,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2717,11 +2726,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2773,7 +2782,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2783,49 +2792,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>169</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>170</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>56</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>45</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>1907.9100000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>168</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>169</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>170</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>1928.9100000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>171</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>172</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>173</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3084,10 +3126,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 6:34 PM</t>
+    <t>Saturday, 31 May, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -524,7 +524,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:26 PM</t>
+    <t>Saturday, 31 May, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -524,7 +533,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:28 PM</t>
+    <t>Saturday, 31 May, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,7 +1570,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1578,7 +1587,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1594,7 +1603,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,11 +1613,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1637,11 +1646,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1670,7 +1679,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1693,7 +1702,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1726,7 +1735,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1759,7 +1768,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1792,7 +1801,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1858,7 +1867,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1891,7 +1900,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1908,7 +1917,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1924,7 +1933,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2023,7 +2032,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2040,7 +2049,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,11 +2174,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2205,7 +2214,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2247,7 +2256,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,11 +2306,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2334,7 +2343,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2346,20 +2355,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2370,7 +2379,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2386,13 +2395,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2419,7 +2428,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,11 +2438,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2445,7 +2454,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2499,10 +2508,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2535,7 +2544,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2561,11 +2570,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2577,31 +2586,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2631,10 +2640,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,7 +2652,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2726,7 +2735,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2749,7 +2758,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2759,11 +2768,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2792,11 +2801,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2815,7 +2824,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2825,49 +2834,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>172</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>173</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>56</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>45</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q57" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>1928.9100000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>171</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>172</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>173</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>1972.9100000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>174</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>175</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>176</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3131,10 +3173,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -395,6 +404,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -425,6 +443,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>81.1800</t>
+  </si>
+  <si>
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -473,9 +500,6 @@
     <t>جهاز ريد</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>140.00</t>
   </si>
   <si>
@@ -533,7 +557,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:29 PM</t>
+    <t>Saturday, 31 May, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1726,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1712,14 +1736,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1735,7 +1759,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1768,7 +1792,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1801,7 +1825,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1834,7 +1858,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1867,7 +1891,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1877,14 +1901,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1900,7 +1924,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1910,14 +1934,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1933,7 +1957,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1950,7 +1974,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1966,7 +1990,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1983,7 +2007,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1999,7 +2023,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2009,11 +2033,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2065,7 +2089,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2082,7 +2106,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2207,11 +2231,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2247,7 +2271,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2263,7 +2287,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2289,7 +2313,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2339,11 +2363,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2376,7 +2400,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2388,28 +2412,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2421,14 +2445,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2445,7 +2469,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2467,15 +2491,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2537,14 +2561,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2570,14 +2594,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2593,7 +2617,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2603,11 +2627,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2619,31 +2643,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,31 +2676,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2685,20 +2709,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2706,10 +2730,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2725,7 +2749,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2735,11 +2759,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2751,14 +2775,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2791,7 +2815,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2801,14 +2825,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2817,7 +2841,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2834,7 +2858,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2857,7 +2881,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2867,49 +2891,148 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>175</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>176</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>56</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>31</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>177</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>26</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>56</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>178</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>180</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>181</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>56</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>45</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>1972.9100000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>174</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>175</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>176</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2178.0900000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>182</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>183</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>184</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3178,10 +3301,25 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -77,15 +77,15 @@
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -230,9 +230,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -251,6 +248,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -260,6 +266,21 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -392,6 +413,15 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>OMEZ 10MG 14 CAPS.</t>
   </si>
   <si>
@@ -434,6 +464,9 @@
     <t>230.0000</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -479,9 +512,6 @@
     <t>VITATRON 30 CAPS</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>49.5000</t>
   </si>
   <si>
@@ -557,7 +587,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:43 PM</t>
+    <t>Saturday, 31 May, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1264,7 +1294,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1274,14 +1304,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1736,14 +1766,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1752,7 +1782,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1769,11 +1799,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1785,7 +1815,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1802,11 +1832,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1818,14 +1848,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1835,11 +1865,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1851,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,11 +1898,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1884,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1908,7 +1938,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1917,14 +1947,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1934,14 +1964,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1950,7 +1980,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1967,14 +1997,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1983,14 +2013,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2000,14 +2030,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2016,7 +2046,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2033,11 +2063,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2049,14 +2079,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2073,7 +2103,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2089,7 +2119,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2122,7 +2152,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2132,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2165,11 +2195,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,11 +2228,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2214,7 +2244,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2231,11 +2261,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2247,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2320,7 +2350,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,11 +2360,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,11 +2393,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,14 +2426,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2412,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2462,11 +2492,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2485,24 +2515,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2518,7 +2548,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2551,7 +2581,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2561,14 +2591,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2577,7 +2607,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2590,15 +2620,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2610,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2627,11 +2657,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2643,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2667,7 +2697,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2683,7 +2713,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2700,7 +2730,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2716,7 +2746,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2726,14 +2756,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,31 +2772,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2775,31 +2805,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2808,31 +2838,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2841,31 +2871,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2881,7 +2911,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2914,7 +2944,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2924,14 +2954,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,10 +2991,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>179</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2980,7 +3010,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2990,49 +3020,181 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>24</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>56</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>183</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>186</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>56</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>31</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>187</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>26</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>56</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>188</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>190</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>191</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>56</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>45</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2178.0900000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>182</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>183</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>184</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2395.8499999999999</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>192</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>193</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>194</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3316,10 +3478,30 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>100.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
   </si>
   <si>
     <t>GLYCODAL 30 CHEW. TAB</t>
@@ -2086,7 +2095,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2136,7 +2145,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2152,7 +2161,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2162,11 +2171,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2218,7 +2227,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2235,7 +2244,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,11 +2369,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2400,7 +2409,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2482,7 +2491,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2492,11 +2501,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2508,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,11 +2534,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2548,7 +2557,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2581,7 +2590,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2591,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2607,20 +2616,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2631,7 +2640,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2647,24 +2656,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2713,7 +2722,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2730,7 +2739,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2746,7 +2755,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2765,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,7 +2781,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2789,14 +2798,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,14 +2814,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2826,10 +2835,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2838,14 +2847,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2855,14 +2864,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2871,14 +2880,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2888,11 +2897,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2904,20 +2913,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2928,7 +2937,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2944,7 +2953,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2958,10 +2967,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2970,7 +2979,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2987,14 +2996,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>179</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3020,14 +3029,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3036,14 +3045,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3053,7 +3062,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3076,7 +3085,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3086,11 +3095,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3102,14 +3111,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3142,7 +3151,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3152,49 +3161,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>193</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>194</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>56</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>45</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2395.8499999999999</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>192</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>193</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>194</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2417.8499999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>195</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>196</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>197</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3498,10 +3540,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -536,6 +536,15 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -596,7 +605,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:47 PM</t>
+    <t>Saturday, 31 May, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2953,7 +2962,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2963,11 +2972,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2986,7 +2995,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3000,10 +3009,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,7 +3021,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>182</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3095,7 +3104,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3118,7 +3127,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,11 +3137,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3144,14 +3153,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3161,11 +3170,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3184,7 +3193,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3194,49 +3203,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>197</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>56</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>45</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>46</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2417.8499999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>195</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>196</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>197</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2442.8499999999999</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>198</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>199</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>200</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3545,10 +3587,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -122,12 +122,21 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>APETOID 20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>18.8100</t>
   </si>
   <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -431,6 +449,15 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>OMEZ 10MG 14 CAPS.</t>
   </si>
   <si>
@@ -452,6 +479,18 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -566,9 +605,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -605,7 +641,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:48 PM</t>
+    <t>Saturday, 31 May, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1477,7 +1513,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1494,7 +1530,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1543,7 +1579,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1553,11 +1589,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1569,14 +1605,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1609,21 +1645,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1635,20 +1671,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1675,7 +1711,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1692,7 +1728,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1708,7 +1744,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,11 +1754,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1734,14 +1770,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,11 +1787,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1767,14 +1803,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,14 +1820,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1800,14 +1836,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1853,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1840,7 +1876,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1906,7 +1942,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1939,7 +1975,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,14 +1985,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +2001,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +2018,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2005,7 +2041,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2038,7 +2074,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,14 +2084,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,7 +2107,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,14 +2117,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2104,7 +2140,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2137,7 +2173,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2154,7 +2190,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2170,7 +2206,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2187,7 +2223,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2203,7 +2239,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,11 +2249,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2229,14 +2265,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,11 +2282,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2262,14 +2298,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2286,7 +2322,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2302,7 +2338,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,11 +2348,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2328,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2378,7 +2414,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2418,7 +2454,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2434,7 +2470,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2480,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,11 +2513,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2493,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,11 +2546,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2526,7 +2562,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2543,14 +2579,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,11 +2612,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2592,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,11 +2678,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2658,20 +2694,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2679,10 +2715,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,14 +2727,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,14 +2744,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2777,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,7 +2826,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2803,15 +2839,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2823,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,11 +2876,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2856,14 +2892,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2909,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2942,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,14 +2975,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,20 +2991,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2976,10 +3012,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2995,24 +3031,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,31 +3057,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,31 +3090,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,28 +3123,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3120,28 +3156,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3153,31 +3189,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3186,7 +3222,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3199,18 +3235,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3219,66 +3255,198 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2442.8499999999999</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>198</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>199</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>200</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>24</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>59</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>201</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>204</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>59</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>31</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>205</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>26</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>59</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>206</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>209</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>59</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>48</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>2618.3899999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>210</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>211</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>212</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3592,10 +3760,30 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -326,6 +335,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -491,6 +506,15 @@
     <t>39.3600</t>
   </si>
   <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -545,12 +569,18 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>VIATRAZO 80 MG 3 VAG. SUPP.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -608,7 +638,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>فرش اسنان اورال بي</t>
@@ -641,7 +671,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:49 PM</t>
+    <t>Saturday, 31 May, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,7 +1543,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1530,7 +1560,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1546,7 +1576,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1563,7 +1593,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1612,7 +1642,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,11 +1652,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1638,14 +1668,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1678,21 +1708,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1704,20 +1734,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1744,7 +1774,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1761,7 +1791,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1777,7 +1807,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,11 +1817,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1803,14 +1833,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,11 +1850,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1836,14 +1866,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1853,14 +1883,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1869,14 +1899,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,14 +1916,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1909,7 +1939,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1975,7 +2005,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2008,7 +2038,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,14 +2048,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2034,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2081,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2074,7 +2104,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2107,7 +2137,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2117,14 +2147,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2140,7 +2170,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2180,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2173,7 +2203,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2206,7 +2236,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,14 +2246,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,14 +2262,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,11 +2279,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2265,14 +2295,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2312,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,14 +2328,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,11 +2345,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2331,14 +2361,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,11 +2378,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2364,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2411,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,14 +2427,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,7 +2444,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2437,7 +2467,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,11 +2477,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2463,7 +2493,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2480,11 +2510,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2543,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,14 +2559,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2576,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,14 +2592,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,11 +2609,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2595,14 +2625,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,11 +2642,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2628,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2675,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2691,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,11 +2708,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2694,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2715,10 +2745,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2757,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2774,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,14 +2790,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,11 +2807,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2793,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,14 +2840,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,31 +2856,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,11 +2906,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2899,7 +2929,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2939,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,31 +2955,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,14 +3005,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,7 +3028,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3012,10 +3042,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,14 +3054,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3048,7 +3078,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3064,7 +3094,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3104,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3097,7 +3127,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,11 +3137,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3123,28 +3153,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3156,31 +3186,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,31 +3219,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,31 +3252,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3262,21 +3292,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3288,28 +3318,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3321,31 +3351,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3354,7 +3384,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3367,18 +3397,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3394,59 +3424,191 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>2618.3899999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>210</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>24</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>62</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>211</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>212</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>213</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>214</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>62</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>31</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>215</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>26</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>62</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>216</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>219</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>62</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>51</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>2816.3899999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>220</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>221</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>222</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3780,10 +3942,30 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -134,6 +134,21 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -188,9 +203,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
   </si>
   <si>
-    <t>0:6</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -401,9 +410,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -473,9 +479,27 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>OMEZ 10MG 14 CAPS.</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -506,6 +530,12 @@
     <t>39.3600</t>
   </si>
   <si>
+    <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -635,6 +665,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -671,7 +704,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:51 PM</t>
+    <t>Saturday, 31 May, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1543,7 +1576,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1553,14 +1586,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1569,14 +1602,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1586,14 +1619,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1602,14 +1635,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1619,14 +1652,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1635,7 +1668,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1652,11 +1685,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1668,14 +1701,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1685,11 +1718,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1701,14 +1734,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1718,11 +1751,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1734,20 +1767,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1755,7 +1788,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1767,28 +1800,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1800,14 +1833,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1817,14 +1850,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1833,14 +1866,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1873,7 +1906,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1883,11 +1916,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1899,14 +1932,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1916,14 +1949,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1932,14 +1965,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1949,14 +1982,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1965,14 +1998,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1982,11 +2015,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1998,7 +2031,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2015,11 +2048,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2031,14 +2064,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2048,11 +2081,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2064,14 +2097,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2088,7 +2121,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2097,14 +2130,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2114,14 +2147,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2137,7 +2170,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2170,7 +2203,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2180,14 +2213,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2203,7 +2236,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2213,14 +2246,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2236,7 +2269,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2246,11 +2279,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2262,14 +2295,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2279,11 +2312,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2302,7 +2335,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2319,7 +2352,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2335,7 +2368,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2352,7 +2385,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2401,7 +2434,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2411,11 +2444,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2427,14 +2460,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2467,7 +2500,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2484,7 +2517,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2510,14 +2543,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2533,7 +2566,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2543,14 +2576,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2559,14 +2592,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,14 +2609,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2599,7 +2632,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2609,11 +2642,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2625,14 +2658,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2642,14 +2675,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2658,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2675,14 +2708,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2691,14 +2724,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2708,14 +2741,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2724,7 +2757,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2741,14 +2774,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2757,14 +2790,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2774,14 +2807,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2790,14 +2823,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2807,11 +2840,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2823,14 +2856,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2840,14 +2873,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2863,7 +2896,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,11 +2906,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2889,14 +2922,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,11 +2939,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2922,14 +2955,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2939,14 +2972,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2955,31 +2988,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2988,14 +3021,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3038,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3021,14 +3054,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3042,10 +3075,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3054,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3078,7 +3111,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3100,15 +3133,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3120,14 +3153,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3137,11 +3170,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3160,7 +3193,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3193,7 +3226,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3210,7 +3243,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3226,7 +3259,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3236,14 +3269,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3259,7 +3292,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3269,11 +3302,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3285,28 +3318,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3318,31 +3351,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3351,31 +3384,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3384,31 +3417,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3424,24 +3457,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3450,28 +3483,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3483,31 +3516,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,7 +3549,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3529,18 +3562,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3549,66 +3582,198 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>2816.3899999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>220</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>221</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>24</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>66</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>222</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>224</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>225</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>66</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>31</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>226</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>26</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>66</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>227</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>229</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>230</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>66</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>56</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3145.9400000000001</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>231</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>232</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>233</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3962,10 +4127,30 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -530,12 +530,6 @@
     <t>39.3600</t>
   </si>
   <si>
-    <t>PRAVOTIN 100MG 14 SACHETS</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -704,7 +698,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:54 PM</t>
+    <t>Saturday, 31 May, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3028,7 +3022,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3038,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3054,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3071,11 +3065,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3087,31 +3081,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3120,31 +3114,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3153,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,14 +3164,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3186,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3203,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3219,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3236,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3269,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3292,7 +3286,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3306,10 +3300,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3318,14 +3312,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3335,14 +3329,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3351,14 +3345,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3368,14 +3362,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3391,7 +3385,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3401,11 +3395,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3417,31 +3411,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3450,14 +3444,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3471,7 +3465,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3483,14 +3477,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3500,14 +3494,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,10 +3531,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3549,7 +3543,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3566,14 +3560,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>218</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3589,7 +3583,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3599,14 +3593,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3615,14 +3609,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3632,11 +3626,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3655,7 +3649,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3665,11 +3659,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3681,14 +3675,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3698,82 +3692,49 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="A79" s="7">
-        <v>73</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c t="s" r="C79" s="8">
+      <c r="P79" s="13">
+        <v>2965.9400000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
         <v>229</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c t="s" r="H79" s="9">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
         <v>230</v>
       </c>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c t="s" r="L79" s="10">
-        <v>66</v>
-      </c>
-      <c r="M79" s="10"/>
-      <c t="s" r="N79" s="8">
-        <v>56</v>
-      </c>
-      <c r="O79" s="8"/>
-      <c t="s" r="P79" s="11">
-        <v>57</v>
-      </c>
-      <c t="s" r="Q79" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3145.9400000000001</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
         <v>231</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
-        <v>232</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
-        <v>233</v>
-      </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4142,15 +4103,10 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -263,6 +263,9 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -482,9 +485,6 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -698,7 +698,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 7:56 PM</t>
+    <t>Saturday, 31 May, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,7 +1999,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2075,11 +2075,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2141,14 +2141,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2174,11 +2174,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2207,11 +2207,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2223,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>38</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2289,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2339,11 +2339,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2372,11 +2372,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2405,11 +2405,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2454,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,11 +2471,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2487,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,11 +2504,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2520,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2586,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,11 +2603,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2652,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2702,11 +2702,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2735,11 +2735,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2768,11 +2768,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2801,11 +2801,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>38</v>
@@ -2817,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3253,7 +3253,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3319,7 +3319,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3567,7 +3567,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>ADWITINE 30 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>AMRIZOLE 250MG 20 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -113,13 +122,13 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>2:4</t>
+    <t>1:4</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>90.4800</t>
   </si>
   <si>
     <t>APETOID 20MG 30 F.C.TAB.</t>
@@ -353,6 +362,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t xml:space="preserve">GABAVERONA 400 MG  CAPS</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -521,9 +539,6 @@
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>246.00</t>
   </si>
   <si>
@@ -629,6 +644,12 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -659,7 +680,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -698,7 +722,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 8:02 PM</t>
+    <t>Saturday, 31 May, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1429,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1415,14 +1439,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1438,7 +1462,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1448,14 +1472,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1488,7 +1512,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1504,7 +1528,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1514,11 +1538,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1530,14 +1554,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1547,14 +1571,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1563,14 +1587,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1580,14 +1604,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1596,14 +1620,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1613,14 +1637,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1636,7 +1660,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1653,7 +1677,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1669,7 +1693,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1686,7 +1710,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1735,7 +1759,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1745,11 +1769,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1761,14 +1785,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1782,7 +1806,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1794,28 +1818,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1827,20 +1851,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1884,7 +1908,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1900,7 +1924,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1910,11 +1934,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1926,14 +1950,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,11 +1967,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1992,14 +2016,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,14 +2033,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2065,7 +2089,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2098,7 +2122,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2131,7 +2155,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2148,7 +2172,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2197,7 +2221,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2230,7 +2254,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2263,7 +2287,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2296,7 +2320,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2306,11 +2330,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2339,11 +2363,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2362,13 +2386,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2395,7 +2419,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2428,7 +2452,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2445,7 +2469,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2461,7 +2485,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,11 +2495,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,11 +2528,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2561,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,11 +2594,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,7 +2627,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2636,7 +2660,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2676,7 +2700,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2692,7 +2716,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,11 +2759,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2751,14 +2775,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,11 +2792,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2784,14 +2808,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2824,7 +2848,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2857,7 +2881,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2891,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2907,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,11 +2924,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2916,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,11 +2957,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2949,7 +2973,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2966,14 +2990,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,7 +3027,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3015,14 +3039,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3056,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,14 +3072,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,11 +3089,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3081,31 +3105,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,11 +3155,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3147,28 +3171,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3180,14 +3204,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,14 +3221,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,7 +3254,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3253,7 +3277,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3267,10 +3291,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,14 +3303,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,7 +3320,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3319,7 +3343,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3333,10 +3357,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3369,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,14 +3386,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3385,7 +3409,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3395,14 +3419,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,31 +3435,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,31 +3468,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,31 +3501,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,20 +3534,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3531,10 +3555,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,31 +3567,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3583,13 +3607,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3597,10 +3621,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,31 +3633,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,31 +3666,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3682,59 +3706,158 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>2965.9400000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>229</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>230</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>231</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>69</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>34</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>30</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>69</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>233</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>236</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>69</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>59</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3213.4250000000002</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>237</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>238</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>239</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4103,10 +4226,25 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -446,9 +458,6 @@
     <t>1:18</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
@@ -680,10 +689,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>19:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -722,7 +731,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 8:05 PM</t>
+    <t>Saturday, 31 May, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1669,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1703,14 +1712,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1752,7 +1761,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1769,11 +1778,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1835,11 +1844,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1851,20 +1860,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1872,7 +1881,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1884,28 +1893,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1990,7 +1999,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2000,11 +2009,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2099,11 +2108,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2115,7 +2124,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2132,11 +2141,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2165,11 +2174,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2238,7 +2247,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,11 +2273,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2297,14 +2306,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2330,14 +2339,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2363,11 +2372,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2379,31 +2388,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2412,31 +2421,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2511,7 +2520,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2528,11 +2537,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2584,7 +2593,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2594,11 +2603,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2716,7 +2725,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2759,11 +2768,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2799,7 +2808,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2815,7 +2824,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2898,7 +2907,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2931,7 +2940,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2957,11 +2966,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,11 +3032,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3046,7 +3055,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3096,7 +3105,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3112,7 +3121,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3122,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3159,7 +3168,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3171,20 +3180,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3195,7 +3204,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3211,24 +3220,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3277,7 +3286,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3294,7 +3303,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3409,7 +3418,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3426,7 +3435,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3485,11 +3494,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3534,28 +3543,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3574,21 +3583,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3607,13 +3616,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3621,10 +3630,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3633,7 +3642,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3646,18 +3655,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>224</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3666,7 +3675,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3679,18 +3688,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>133</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3699,31 +3708,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3739,21 +3748,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3765,28 +3774,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3805,59 +3814,92 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3213.4250000000002</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>237</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>238</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
         <v>239</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>73</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>63</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3245.4250000000002</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>240</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>241</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>242</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4241,10 +4283,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
+    <t>COPAD 10.000 30 CAPS.</t>
+  </si>
+  <si>
     <t>DELTASONE 0.75MG 30 TAB.</t>
   </si>
   <si>
@@ -545,6 +557,12 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
@@ -575,6 +593,15 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>RYLTRIS</t>
   </si>
   <si>
@@ -596,6 +623,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -617,6 +650,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>VIATRAZO 80 MG 3 VAG. SUPP.</t>
   </si>
   <si>
@@ -647,9 +689,6 @@
     <t>3:5</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -731,7 +770,7 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 8:22 PM</t>
+    <t>Saturday, 31 May, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,7 +2071,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,11 +2081,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2058,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,14 +2114,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2098,7 +2137,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,11 +2147,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2124,14 +2163,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,11 +2213,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2190,14 +2229,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2207,11 +2246,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2223,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2279,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,14 +2295,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2273,11 +2312,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2289,14 +2328,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2306,14 +2345,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2339,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2355,7 +2394,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2372,14 +2411,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2388,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2405,14 +2444,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2421,31 +2460,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2454,14 +2493,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2471,11 +2510,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2487,28 +2526,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2520,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2537,11 +2576,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2553,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2570,14 +2609,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2586,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,11 +2642,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2619,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2636,11 +2675,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2652,14 +2691,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2669,14 +2708,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2685,14 +2724,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,7 +2741,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2725,7 +2764,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2751,7 +2790,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2768,11 +2807,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2784,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,11 +2906,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2890,7 +2929,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2923,7 +2962,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2933,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2949,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,11 +3005,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2982,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2999,14 +3038,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3022,7 +3061,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,11 +3071,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3048,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,11 +3104,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3081,7 +3120,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3098,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3114,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3147,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,14 +3203,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3213,31 +3252,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3279,14 +3318,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3335,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3312,14 +3351,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,14 +3368,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3345,7 +3384,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3358,11 +3397,11 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3385,7 +3424,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,11 +3434,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3411,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,11 +3467,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3444,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3477,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,31 +3615,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,28 +3648,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3642,28 +3681,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3675,31 +3714,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>108</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,31 +3747,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,28 +3780,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3774,14 +3813,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,11 +3830,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3807,14 +3846,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,11 +3863,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3840,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,49 +3896,247 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>237</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>30</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>73</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>238</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>241</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>30</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>73</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>236</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>28</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>73</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>244</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>246</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>247</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>73</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>34</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>248</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>30</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>73</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>249</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>252</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>73</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>63</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>64</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3245.4250000000002</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>240</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>241</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>242</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>3605.9650000000001</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>253</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>254</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>255</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4288,10 +4525,40 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>ALL-VENT SYRUP 125ML</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -281,6 +290,15 @@
     <t>COPAD 10.000 30 CAPS.</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DELTASONE 0.75MG 30 TAB.</t>
   </si>
   <si>
@@ -299,12 +317,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -539,15 +551,21 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -686,10 +704,10 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>16.3200</t>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>32.6400</t>
   </si>
   <si>
     <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
@@ -728,10 +746,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>19:0</t>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>21:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -770,7 +788,16 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 8:26 PM</t>
+    <t xml:space="preserve">معطر جو FRIDA </t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب صغيره</t>
+  </si>
+  <si>
+    <t>41:0</t>
+  </si>
+  <si>
+    <t>Saturday, 31 May, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1537,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1520,14 +1547,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1543,7 +1570,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1553,14 +1580,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1576,7 +1603,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1593,7 +1620,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1609,7 +1636,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1619,14 +1646,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1635,14 +1662,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1652,14 +1679,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1668,14 +1695,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1685,14 +1712,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1701,14 +1728,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1718,14 +1745,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1734,14 +1761,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1758,7 +1785,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1774,7 +1801,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1791,7 +1818,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1807,7 +1834,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1824,7 +1851,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1873,7 +1900,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1883,11 +1910,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1920,7 +1947,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1932,28 +1959,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1965,20 +1992,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2005,7 +2032,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2022,7 +2049,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2038,7 +2065,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2048,11 +2075,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2064,14 +2091,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2104,7 +2131,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,11 +2141,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,11 +2174,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2213,7 +2240,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2236,7 +2263,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,11 +2306,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,11 +2339,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2361,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,11 +2405,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2411,14 +2438,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2526,31 +2553,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2559,14 +2586,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,11 +2603,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2592,28 +2619,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2642,11 +2669,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,11 +2735,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2741,11 +2768,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2774,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,7 +2834,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2830,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2840,11 +2867,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2856,7 +2883,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2873,11 +2900,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2955,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,11 +2999,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2995,7 +3022,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3028,7 +3055,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,14 +3065,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,11 +3098,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3127,7 +3154,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3137,11 +3164,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,11 +3197,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3186,7 +3213,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,11 +3362,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3351,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3384,31 +3411,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,11 +3461,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,31 +3510,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3523,7 +3550,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,11 +3593,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,11 +3626,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3615,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,14 +3675,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,11 +3692,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3725,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3731,11 +3758,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3747,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,14 +3791,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,31 +3840,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>112</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3846,31 +3873,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,31 +3906,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,31 +3939,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>240</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,31 +3972,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,31 +4005,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,31 +4038,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4044,31 +4071,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4077,66 +4104,231 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>63</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>3605.9650000000001</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>252</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>253</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>76</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>37</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>254</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>26</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>76</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>255</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>257</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>258</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>76</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>66</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>145</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>76</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>250</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>260</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>261</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>76</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>66</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>3814.165</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>263</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>264</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4555,10 +4747,35 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -110,6 +110,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALWAYS ماكس طويل</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -239,9 +254,6 @@
     <t>30:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -326,6 +338,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -350,9 +371,6 @@
     <t>150.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -365,6 +383,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -467,9 +494,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -704,10 +728,10 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>32.6400</t>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>66.3000</t>
   </si>
   <si>
     <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
@@ -746,10 +770,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>21:0</t>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -770,9 +794,6 @@
     <t>قطن 100 جم</t>
   </si>
   <si>
-    <t>24:0</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -797,7 +818,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 8:48 PM</t>
+    <t>Saturday, 31 May, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1603,21 +1624,21 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1629,14 +1650,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1646,14 +1667,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1662,14 +1683,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1679,14 +1700,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1712,14 +1733,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1728,14 +1749,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1745,14 +1766,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1785,7 +1806,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1794,14 +1815,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1811,14 +1832,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1844,14 +1865,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1860,14 +1881,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1877,14 +1898,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1893,7 +1914,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1910,11 +1931,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1926,14 +1947,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1943,11 +1964,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1959,14 +1980,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1976,11 +1997,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1992,28 +2013,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2032,21 +2053,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2091,14 +2112,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2131,7 +2152,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2174,11 +2195,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2207,11 +2228,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2240,11 +2261,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2273,14 +2294,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2310,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2327,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,14 +2343,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,11 +2360,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2355,7 +2376,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2372,11 +2393,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,11 +2426,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2421,14 +2442,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2459,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2461,7 +2482,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2494,7 +2515,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2508,10 +2529,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>120</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2527,7 +2548,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2593,7 +2614,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2619,31 +2640,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2669,11 +2690,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2725,13 +2746,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2742,7 +2763,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2758,7 +2779,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2791,7 +2812,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,11 +2855,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2890,7 +2911,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,11 +2921,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2982,14 +3003,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,11 +3020,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3015,14 +3036,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,11 +3053,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3048,7 +3069,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3065,11 +3086,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3088,7 +3109,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3119,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3152,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3185,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,11 +3218,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,14 +3251,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3312,7 +3333,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3329,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3352,7 +3373,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,14 +3383,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3402,7 +3423,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3418,7 +3439,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3451,7 +3472,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,11 +3482,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,11 +3515,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3510,31 +3531,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,11 +3581,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>88</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3614,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,31 +3630,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3682,7 +3703,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,7 +3812,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3814,7 +3835,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3828,10 +3849,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,7 +3878,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3880,7 +3901,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,14 +3911,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3913,7 +3934,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,14 +3944,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,31 +3960,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>166</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3979,24 +4000,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4018,18 +4039,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4045,24 +4066,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,31 +4092,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4111,13 +4132,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4125,10 +4146,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4137,31 +4158,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,7 +4191,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4183,18 +4204,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4210,21 +4231,21 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4236,28 +4257,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4269,66 +4290,165 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>66</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>3814.165</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>262</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>263</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>264</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>265</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>35</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>71</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>266</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>154</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>35</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>258</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>267</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>268</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>35</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>71</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4123.665</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>269</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>270</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>271</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4772,10 +4892,25 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -818,7 +818,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 8:57 PM</t>
+    <t>Saturday, 31 May, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -455,9 +464,6 @@
     <t>IMUTREXATE 2.5 MG 10 TABS.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -740,6 +746,12 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -818,7 +830,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 8:58 PM</t>
+    <t>Saturday, 31 May, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2383,7 +2395,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2416,7 +2428,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,7 +2438,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2449,7 +2461,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,7 +2471,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2482,7 +2494,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2515,7 +2527,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2529,10 +2541,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2548,7 +2560,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2562,10 +2574,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2581,7 +2593,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2598,7 +2610,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2631,7 +2643,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2647,7 +2659,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2680,7 +2692,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2713,7 +2725,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,11 +2735,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2739,31 +2751,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2779,13 +2791,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2796,7 +2808,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2812,7 +2824,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2829,7 +2841,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2845,7 +2857,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2862,7 +2874,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2888,11 +2900,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,11 +2933,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3043,7 +3055,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3109,7 +3121,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,11 +3131,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,14 +3164,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3234,7 +3246,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3251,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,11 +3329,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3373,7 +3385,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,14 +3395,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3428,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3505,7 +3517,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3519,7 +3531,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,11 +3560,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,11 +3593,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,11 +3626,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3630,31 +3642,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3663,31 +3675,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3779,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3795,14 +3807,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,14 +3824,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3835,7 +3847,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,14 +3857,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3868,7 +3880,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3882,7 +3894,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3894,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,14 +3923,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3944,14 +3956,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3977,14 +3989,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4000,7 +4012,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4010,14 +4022,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4026,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4043,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4066,21 +4078,21 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4092,14 +4104,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,11 +4121,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4125,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4191,7 +4203,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4208,14 +4220,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>154</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4224,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4297,7 +4309,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4330,7 +4342,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4340,11 +4352,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4356,14 +4368,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4373,11 +4385,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4389,14 +4401,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4417,38 +4429,104 @@
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4123.665</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>269</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>270</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>156</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>35</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>262</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>271</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>272</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>35</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>71</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4160.4949999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>273</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>274</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>275</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4907,10 +4985,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 8:59 PM</t>
+    <t>Saturday, 31 May, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -308,27 +308,30 @@
     <t>36.00</t>
   </si>
   <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DELTASONE 0.75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>11.8800</t>
   </si>
   <si>
-    <t>DELTASONE 0.75MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>DEVAROL-S 200000 I.U AMPOULE</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -776,36 +779,45 @@
     <t>3.00</t>
   </si>
   <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورال بي</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
   </si>
   <si>
     <t>24:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>فرش اسنان اورال بي</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -830,7 +842,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:05 PM</t>
+    <t>Saturday, 31 May, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2263,7 +2275,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2280,7 +2292,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2376,7 +2388,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2388,7 +2400,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2405,11 +2417,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2421,7 +2433,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2438,11 +2450,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2475,7 +2487,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2487,7 +2499,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2504,11 +2516,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2520,7 +2532,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2537,11 +2549,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2553,7 +2565,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2586,7 +2598,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2603,11 +2615,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2619,7 +2631,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2636,11 +2648,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2652,7 +2664,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2669,11 +2681,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2706,7 +2718,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>49</v>
@@ -2718,7 +2730,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2735,11 +2747,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2784,7 +2796,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2801,11 +2813,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2817,7 +2829,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2834,11 +2846,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2850,7 +2862,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2867,11 +2879,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2883,7 +2895,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2900,11 +2912,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2916,7 +2928,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2933,11 +2945,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2966,11 +2978,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,11 +3011,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3015,7 +3027,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3036,7 +3048,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3048,7 +3060,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3069,7 +3081,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3102,7 +3114,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3114,7 +3126,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3135,7 +3147,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,11 +3176,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3180,7 +3192,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3197,11 +3209,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3213,7 +3225,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3246,7 +3258,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3263,11 +3275,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3279,7 +3291,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3296,11 +3308,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>49</v>
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3329,11 +3341,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3345,7 +3357,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3378,7 +3390,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3395,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3411,7 +3423,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,11 +3473,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>49</v>
@@ -3477,7 +3489,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3494,11 +3506,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3510,7 +3522,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3527,11 +3539,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3543,7 +3555,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3560,11 +3572,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3642,7 +3654,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3659,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3675,7 +3687,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3692,11 +3704,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3708,7 +3720,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3741,7 +3753,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3774,7 +3786,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3791,11 +3803,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3807,7 +3819,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3824,11 +3836,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>49</v>
@@ -3840,7 +3852,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3861,7 +3873,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3873,7 +3885,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3890,11 +3902,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3906,7 +3918,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3923,11 +3935,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3939,7 +3951,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3956,11 +3968,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,11 +4001,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>32</v>
@@ -4005,7 +4017,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4022,11 +4034,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,7 +4083,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4088,11 +4100,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,11 +4166,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4170,7 +4182,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4187,11 +4199,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4203,7 +4215,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4220,11 +4232,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>32</v>
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>258</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,7 +4281,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>156</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4342,7 +4354,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,11 +4397,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,11 +4430,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4434,14 +4446,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4451,11 +4463,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,49 +4496,82 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>275</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>276</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>35</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>71</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4160.4949999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>273</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>274</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>275</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4194.375</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>277</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>278</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>279</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4995,10 +5040,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -242,6 +242,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -302,6 +314,15 @@
     <t>COPAD 10.000 30 CAPS.</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -347,9 +368,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -464,6 +482,15 @@
     <t>18.8100</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>IMUTREXATE 2.5 MG 10 TABS.</t>
   </si>
   <si>
@@ -494,12 +521,6 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -548,6 +569,9 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -653,6 +677,9 @@
     <t>98.0100</t>
   </si>
   <si>
+    <t>RHINOPRO SYRUP 90ML</t>
+  </si>
+  <si>
     <t>RYLTRIS</t>
   </si>
   <si>
@@ -674,6 +701,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
   </si>
   <si>
@@ -743,6 +779,18 @@
     <t>66.3000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8709:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
   </si>
   <si>
@@ -782,19 +830,10 @@
     <t xml:space="preserve">زبدة كاكاو لونا </t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>25:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -824,9 +863,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -842,7 +878,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:09 PM</t>
+    <t>Saturday, 31 May, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2044,7 +2080,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2054,11 +2090,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2070,28 +2106,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2110,21 +2146,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2136,14 +2172,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,14 +2189,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2169,14 +2205,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2209,7 +2245,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2219,11 +2255,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2235,14 +2271,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2252,11 +2288,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2268,14 +2304,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2285,14 +2321,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2337,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,11 +2354,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2334,14 +2370,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2351,14 +2387,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2367,14 +2403,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,11 +2420,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2400,14 +2436,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,14 +2453,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2433,14 +2469,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2450,11 +2486,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2466,14 +2502,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2483,11 +2519,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2499,7 +2535,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2516,11 +2552,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2539,7 +2575,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2549,7 +2585,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2572,7 +2608,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2586,10 +2622,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2605,7 +2641,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2638,7 +2674,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2652,10 +2688,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2671,7 +2707,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2704,7 +2740,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2714,14 +2750,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2754,7 +2790,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2780,14 +2816,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2796,31 +2832,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2829,14 +2865,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,11 +2882,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2869,13 +2905,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2902,7 +2938,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,11 +2948,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2928,14 +2964,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2961,14 +2997,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3001,7 +3037,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3011,11 +3047,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3027,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3060,14 +3096,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3077,11 +3113,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3093,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,14 +3146,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3166,7 +3202,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3176,11 +3212,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3192,14 +3228,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,11 +3245,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3225,7 +3261,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3242,11 +3278,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3258,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3282,7 +3318,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3298,7 +3334,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3315,7 +3351,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3331,7 +3367,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3393,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,14 +3410,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3390,14 +3426,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,11 +3443,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3423,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3476,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3480,7 +3516,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3496,7 +3532,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,11 +3575,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3555,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3608,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,14 +3641,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3621,14 +3657,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3674,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,11 +3707,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3687,31 +3723,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3720,14 +3756,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,11 +3773,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3753,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,11 +3839,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3819,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3872,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,7 +3888,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3865,15 +3901,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3885,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3918,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3971,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3968,11 +4004,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3984,14 +4020,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4001,14 +4037,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4034,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,14 +4086,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4103,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,14 +4119,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,14 +4136,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,31 +4152,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,28 +4185,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4182,31 +4218,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4215,31 +4251,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,31 +4284,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,31 +4317,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>261</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,7 +4350,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4327,18 +4363,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4347,14 +4383,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,11 +4400,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4380,14 +4416,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,11 +4433,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4413,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,11 +4466,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4446,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4463,14 +4499,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4479,14 +4515,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4496,11 +4532,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4512,14 +4548,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4529,49 +4565,280 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>275</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>26</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>35</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>271</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>277</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>32</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>35</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>278</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>280</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>281</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>35</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>42</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>282</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>26</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>35</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>283</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>284</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>285</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>35</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>71</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4194.375</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>277</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>286</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>166</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>35</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
         <v>278</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>279</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>287</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>288</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>35</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>71</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>4457.6000000000004</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>289</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>290</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>291</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5045,10 +5312,45 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -302,6 +302,12 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CONTROLEPSY 50 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CONVENTIN XR 600MG 30 TABS.</t>
   </si>
   <si>
@@ -395,6 +401,15 @@
     <t>14.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
   </si>
   <si>
@@ -449,6 +464,15 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -482,6 +506,15 @@
     <t>18.8100</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -647,6 +680,15 @@
     <t>39.3600</t>
   </si>
   <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -800,7 +842,7 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
@@ -878,7 +920,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:12 PM</t>
+    <t>Saturday, 31 May, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2278,7 +2320,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2288,11 +2330,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2304,14 +2346,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2321,11 +2363,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2337,14 +2379,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2354,11 +2396,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2370,7 +2412,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2387,14 +2429,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2403,14 +2445,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2420,14 +2462,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2443,7 +2485,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2453,14 +2495,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2486,14 +2528,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2502,14 +2544,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2519,11 +2561,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2535,14 +2577,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2552,11 +2594,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2575,7 +2617,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2585,11 +2627,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2601,14 +2643,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2618,11 +2660,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2634,14 +2676,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2651,11 +2693,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2667,14 +2709,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2684,14 +2726,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2700,28 +2742,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2733,14 +2775,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2750,14 +2792,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2766,14 +2808,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2783,11 +2825,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2799,14 +2841,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2816,14 +2858,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2832,7 +2874,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2849,14 +2891,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2865,14 +2907,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2882,14 +2924,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2905,13 +2947,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2922,7 +2964,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2938,7 +2980,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2971,7 +3013,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2981,14 +3023,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2997,31 +3039,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3030,14 +3072,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3047,7 +3089,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3070,7 +3112,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3087,7 +3129,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3103,7 +3145,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3113,14 +3155,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3129,14 +3171,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3146,11 +3188,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3162,14 +3204,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3179,14 +3221,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3195,14 +3237,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3212,11 +3254,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3228,14 +3270,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,14 +3287,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3261,14 +3303,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3278,11 +3320,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3294,14 +3336,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3311,14 +3353,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3334,7 +3376,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,14 +3386,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3419,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3435,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,11 +3452,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3426,14 +3468,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3459,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,14 +3518,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3492,14 +3534,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,14 +3551,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3525,14 +3567,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3584,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3600,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,11 +3617,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3591,14 +3633,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,14 +3650,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3624,14 +3666,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3683,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,14 +3716,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3690,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3707,11 +3749,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3723,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,14 +3782,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3756,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,14 +3815,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3796,7 +3838,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3806,14 +3848,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3822,14 +3864,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,11 +3881,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3855,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3895,13 +3937,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3912,7 +3954,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3928,7 +3970,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,11 +3980,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3954,14 +3996,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4020,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,14 +4079,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4053,31 +4095,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4128,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4119,14 +4161,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,14 +4178,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,14 +4194,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4211,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,7 +4227,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4202,14 +4244,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,14 +4260,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4235,14 +4277,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4268,14 +4310,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,14 +4326,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,14 +4343,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4324,7 +4366,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4334,14 +4376,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4350,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4367,7 +4409,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4390,24 +4432,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4416,31 +4458,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4456,24 +4498,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4489,24 +4531,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,28 +4557,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4548,14 +4590,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,14 +4607,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>274</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4581,14 +4623,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4598,14 +4640,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>166</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4614,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4647,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,14 +4706,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4680,14 +4722,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4697,11 +4739,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4713,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4730,14 +4772,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>72</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4746,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4763,14 +4805,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4779,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4796,49 +4838,214 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>71</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>294</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>295</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>35</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>42</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>296</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>26</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>35</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>297</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>298</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>299</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>35</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>71</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q106" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>4457.6000000000004</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>289</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>290</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>291</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>300</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>177</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>35</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>292</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>301</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>302</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>35</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>71</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>4844.3400000000001</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>303</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>304</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>305</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5347,10 +5554,35 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -230,6 +230,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>-36.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -602,15 +614,24 @@
     <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
-    <t>114.00</t>
-  </si>
-  <si>
     <t>37.6200</t>
   </si>
   <si>
@@ -647,15 +668,12 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>PANTOLOC 20MG 14 E.C. TAB.</t>
   </si>
   <si>
@@ -692,9 +710,6 @@
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -920,7 +935,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:22 PM</t>
+    <t>Saturday, 31 May, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2099,14 +2114,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2155,7 +2170,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2165,11 +2180,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2181,28 +2196,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2221,21 +2236,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2247,14 +2262,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2264,14 +2279,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2280,14 +2295,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2320,7 +2335,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2330,11 +2345,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2346,14 +2361,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2363,11 +2378,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2379,14 +2394,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2396,11 +2411,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2412,14 +2427,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2429,11 +2444,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2445,7 +2460,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2462,14 +2477,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2478,14 +2493,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2495,14 +2510,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2511,14 +2526,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2528,14 +2543,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2544,14 +2559,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2561,14 +2576,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2577,14 +2592,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2594,11 +2609,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2610,14 +2625,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2627,11 +2642,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2643,14 +2658,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2660,11 +2675,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2676,14 +2691,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2693,11 +2708,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2709,14 +2724,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2726,11 +2741,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2742,28 +2757,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2775,31 +2790,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2808,14 +2823,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2825,14 +2840,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2841,14 +2856,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2858,14 +2873,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2874,7 +2889,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2891,14 +2906,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2924,14 +2939,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,14 +2972,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2973,7 +2988,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2990,11 +3005,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3023,11 +3038,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3039,31 +3054,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3072,31 +3087,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3122,14 +3137,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3138,14 +3153,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3155,11 +3170,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3171,7 +3186,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3188,14 +3203,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3204,14 +3219,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3221,11 +3236,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3237,7 +3252,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3254,11 +3269,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3270,14 +3285,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3310,7 +3325,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,11 +3335,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3336,14 +3351,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3368,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3369,14 +3384,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,14 +3401,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3402,14 +3417,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,14 +3434,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3468,14 +3483,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,7 +3500,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3508,7 +3523,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,14 +3549,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,11 +3599,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3665,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3683,11 +3698,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3699,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,11 +3764,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3831,14 +3846,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,11 +3863,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3871,7 +3886,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3896,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,14 +3912,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,14 +3929,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3930,14 +3945,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,11 +3962,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3970,7 +3985,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,11 +3995,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4003,7 +4018,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,11 +4028,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4029,14 +4044,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,11 +4061,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4062,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,14 +4094,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4095,31 +4110,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4128,14 +4143,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4160,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,28 +4176,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4194,14 +4209,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4226,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,14 +4242,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4259,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4267,7 +4282,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4284,7 +4299,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4300,7 +4315,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4325,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4333,7 +4348,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4347,10 +4362,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,14 +4374,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,14 +4391,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4399,7 +4414,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4413,10 +4428,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,14 +4440,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,14 +4457,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4458,14 +4473,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,14 +4490,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>134</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4498,7 +4513,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,14 +4523,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4531,7 +4546,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,14 +4556,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,14 +4572,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,14 +4589,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4590,31 +4605,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,28 +4638,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>167</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4663,7 +4678,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4673,14 +4688,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,14 +4704,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4710,10 +4725,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4729,7 +4744,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,11 +4754,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4755,7 +4770,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4772,14 +4787,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>288</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4788,14 +4803,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,14 +4820,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4821,14 +4836,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>293</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4861,7 +4876,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,14 +4886,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4894,7 +4909,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4908,7 +4923,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4920,14 +4935,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4937,11 +4952,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4953,14 +4968,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4970,11 +4985,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4986,14 +5001,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5014,38 +5029,104 @@
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>4844.3400000000001</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>303</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>304</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>305</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>181</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>35</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>297</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>306</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>307</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>35</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>71</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>4945.3400000000001</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>308</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>309</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>310</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5579,10 +5660,20 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -860,6 +860,12 @@
     <t>18:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -914,6 +920,9 @@
     <t>24:0</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -935,7 +944,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:25 PM</t>
+    <t>Saturday, 31 May, 2025 9:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4721,11 +4730,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>116</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4758,7 +4767,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4810,7 +4819,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4853,14 +4862,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>269</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>293</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4886,14 +4895,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>295</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>181</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4909,7 +4918,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,11 +4961,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4975,7 +4984,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,11 +4994,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>42</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5008,7 +5017,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5018,11 +5027,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5034,14 +5043,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5051,11 +5060,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5095,38 +5104,104 @@
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>4945.3400000000001</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>308</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>181</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>35</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>299</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>309</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
         <v>310</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>35</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>71</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>4975.3400000000001</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>311</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>312</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>313</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5670,10 +5745,20 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ALWAYS ماكس طويل</t>
   </si>
   <si>
@@ -212,6 +224,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BILICHOL 24 CAPS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>BRONCHICUM ELIXIR 100 ML</t>
   </si>
   <si>
@@ -305,9 +329,6 @@
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -551,6 +572,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -593,9 +623,6 @@
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -635,15 +662,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -896,7 +926,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -944,7 +974,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:26 PM</t>
+    <t>Saturday, 31 May, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1756,18 +1786,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1776,28 +1806,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1809,14 +1839,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1826,14 +1856,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1842,14 +1872,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1866,7 +1896,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1899,7 +1929,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1932,7 +1962,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1941,14 +1971,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1958,14 +1988,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1981,7 +2011,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1991,14 +2021,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2007,14 +2037,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2024,14 +2054,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2040,14 +2070,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2057,14 +2087,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2073,14 +2103,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2090,11 +2120,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2106,14 +2136,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2123,14 +2153,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2189,14 +2219,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2212,7 +2242,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2222,11 +2252,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2238,28 +2268,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2271,7 +2301,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2288,11 +2318,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2304,31 +2334,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2354,14 +2384,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2387,11 +2417,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2420,11 +2450,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2436,14 +2466,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2457,7 +2487,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2469,14 +2499,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,11 +2516,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2535,14 +2565,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,11 +2582,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2568,14 +2598,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2585,14 +2615,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2618,11 +2648,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2634,14 +2664,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2651,14 +2681,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2684,11 +2714,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2717,11 +2747,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2733,7 +2763,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2750,11 +2780,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2766,14 +2796,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2783,11 +2813,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2799,7 +2829,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2812,15 +2842,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2832,14 +2862,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2849,14 +2879,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2865,28 +2895,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2898,14 +2928,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2915,14 +2945,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2931,14 +2961,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2948,11 +2978,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2964,14 +2994,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2981,14 +3011,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2997,7 +3027,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3014,14 +3044,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3030,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3047,14 +3077,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3063,14 +3093,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3080,11 +3110,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3096,31 +3126,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3129,14 +3159,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,11 +3176,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3162,28 +3192,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3212,14 +3242,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,14 +3275,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3261,14 +3291,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,14 +3308,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3294,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,11 +3341,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3327,14 +3357,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,7 +3374,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3367,7 +3397,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3377,11 +3407,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3393,14 +3423,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3410,14 +3440,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3426,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3443,11 +3473,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3459,14 +3489,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3476,14 +3506,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3492,14 +3522,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3509,14 +3539,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,14 +3555,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,11 +3572,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3558,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3575,11 +3605,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3591,7 +3621,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3608,11 +3638,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3624,14 +3654,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3641,11 +3671,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3657,7 +3687,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3674,14 +3704,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,14 +3720,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3737,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,14 +3753,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3740,14 +3770,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,14 +3786,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3789,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,11 +3836,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3822,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,14 +3869,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,14 +3885,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,14 +3902,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3888,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3935,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3921,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3954,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,11 +4001,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3987,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4034,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4041,10 +4071,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4053,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4100,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4093,7 +4123,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4119,7 +4149,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4136,11 +4166,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4152,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4192,13 +4222,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4206,10 +4236,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,11 +4265,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4251,14 +4281,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4298,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4284,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,11 +4331,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4324,24 +4354,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4400,7 +4430,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4437,10 +4467,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4466,7 +4496,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4506,7 +4536,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4522,7 +4552,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4532,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4565,11 +4595,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4581,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4598,14 +4628,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4631,14 +4661,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,14 +4677,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4664,14 +4694,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,31 +4710,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,31 +4743,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4759,7 +4789,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4767,10 +4797,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4779,24 +4809,24 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4819,21 +4849,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>32</v>
@@ -4852,21 +4882,21 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4878,31 +4908,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>295</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4911,31 +4941,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>181</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,31 +4974,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,24 +5007,24 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>90</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5010,7 +5040,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5023,18 +5053,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5043,7 +5073,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5056,18 +5086,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5076,28 +5106,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>71</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5109,28 +5139,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5142,66 +5172,198 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>4975.3400000000001</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>311</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>312</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>313</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>314</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>26</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>39</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>315</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>316</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>317</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>39</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>79</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>318</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>191</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>39</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>309</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>319</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>320</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>39</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>79</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>5147.8299999999999</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>321</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>322</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>323</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5755,10 +5917,30 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -410,195 +410,198 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABAVERONA 400 MG  CAPS</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLYCODAL 30 CHEW. TAB</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:10</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABAVERONA 400 MG  CAPS</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLYCODAL 30 CHEW. TAB</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -974,7 +977,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:29 PM</t>
+    <t>Saturday, 31 May, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2820,7 +2823,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3543,7 +3546,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3555,7 +3558,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3576,7 +3579,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3588,14 +3591,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3609,7 +3612,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3621,7 +3624,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3642,7 +3645,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3654,7 +3657,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3671,11 +3674,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3687,7 +3690,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3704,11 +3707,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3720,7 +3723,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3737,11 +3740,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3770,11 +3773,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3786,7 +3789,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3819,7 +3822,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3836,11 +3839,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3852,7 +3855,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3869,11 +3872,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>53</v>
@@ -3885,7 +3888,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3902,11 +3905,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>53</v>
@@ -3918,7 +3921,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3935,11 +3938,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3951,7 +3954,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3984,7 +3987,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4005,7 +4008,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4017,7 +4020,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4050,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,7 +4070,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4083,7 +4086,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4100,11 +4103,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4116,7 +4119,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4133,7 +4136,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4149,7 +4152,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4166,11 +4169,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4182,7 +4185,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4199,11 +4202,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4215,14 +4218,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,7 +4235,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4248,14 +4251,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4268,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4281,7 +4284,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4298,11 +4301,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4314,7 +4317,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4347,7 +4350,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4364,11 +4367,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4380,7 +4383,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4413,7 +4416,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4430,11 +4433,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4446,7 +4449,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4463,11 +4466,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4479,7 +4482,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4496,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4512,7 +4515,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4529,11 +4532,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>53</v>
@@ -4545,7 +4548,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4566,7 +4569,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4578,7 +4581,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4611,7 +4614,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4628,11 +4631,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4644,7 +4647,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4661,11 +4664,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4677,7 +4680,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>32</v>
@@ -4710,7 +4713,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4731,7 +4734,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4743,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,11 +4763,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>146</v>
@@ -4776,14 +4779,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,11 +4796,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>18</v>
@@ -4809,7 +4812,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4830,7 +4833,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4842,14 +4845,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4863,7 +4866,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>32</v>
@@ -4875,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4908,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,11 +4928,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4941,7 +4944,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4958,11 +4961,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4974,7 +4977,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4991,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>32</v>
@@ -5007,7 +5010,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5040,7 +5043,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5057,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,7 +5076,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5090,11 +5093,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>191</v>
@@ -5106,7 +5109,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5123,11 +5126,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5139,14 +5142,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5172,7 +5175,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5205,7 +5208,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5222,11 +5225,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5238,14 +5241,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5271,7 +5274,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5288,11 +5291,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5304,14 +5307,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,13 +5336,13 @@
     </row>
     <row r="120" ht="24.75" customHeight="1">
       <c r="P120" s="13">
-        <v>5147.8299999999999</v>
+        <v>5163.6700000000001</v>
       </c>
       <c r="Q120" s="13"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
       <c t="s" r="A121" s="14">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -5347,13 +5350,13 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c t="s" r="G121" s="15">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="16"/>
       <c t="s" r="K121" s="17">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -335,6 +335,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>CONTROLEPSY 50 MG 30 TAB</t>
   </si>
   <si>
@@ -371,6 +380,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DELTACLAV 457MG/5ML PD. FOR ORAL 80ML SUSP.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>DELTASONE 0.75MG 30 TAB.</t>
   </si>
   <si>
@@ -830,9 +848,6 @@
     <t>TRYPTIZOL 25MG 30 TAB</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>10.8900</t>
   </si>
   <si>
@@ -854,6 +869,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>VITATRON 30 CAPS</t>
   </si>
   <si>
@@ -872,96 +896,96 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8709:0</t>
+    <t>8707:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>جهاز ريد</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان اورال بي</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>جهاز ريد</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زبدة كاكاو لونا </t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>فرش اسنان اورال بي</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -977,7 +1001,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:36 PM</t>
+    <t>Saturday, 31 May, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2476,7 +2500,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2486,14 +2510,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2502,14 +2526,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2519,7 +2543,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2542,7 +2566,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2552,11 +2576,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2568,14 +2592,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2585,11 +2609,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2625,7 +2649,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2641,7 +2665,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2651,14 +2675,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2667,14 +2691,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2684,14 +2708,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2700,14 +2724,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2717,11 +2741,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2733,14 +2757,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2750,14 +2774,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2773,7 +2797,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2783,11 +2807,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2799,14 +2823,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2816,14 +2840,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2832,7 +2856,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2849,11 +2873,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2872,7 +2896,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2882,14 +2906,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2911,7 +2935,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2938,7 +2962,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2952,10 +2976,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2971,13 +2995,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3004,7 +3028,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3018,10 +3042,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3037,7 +3061,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3070,7 +3094,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3080,14 +3104,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3120,7 +3144,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3136,7 +3160,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3146,14 +3170,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3169,7 +3193,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3179,11 +3203,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3195,31 +3219,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3228,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3245,11 +3269,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3268,13 +3292,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3301,7 +3325,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3318,7 +3342,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3334,7 +3358,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3351,7 +3375,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3367,7 +3391,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3377,14 +3401,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3393,14 +3417,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3410,11 +3434,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3426,7 +3450,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3443,7 +3467,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3466,7 +3490,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3476,11 +3500,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3492,14 +3516,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3509,11 +3533,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3525,14 +3549,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3542,14 +3566,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3558,14 +3582,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3575,11 +3599,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3591,14 +3615,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3608,11 +3632,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3624,7 +3648,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3641,11 +3665,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3657,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,14 +3714,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3730,7 +3754,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,11 +3764,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3756,14 +3780,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3773,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3789,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3806,11 +3830,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3822,14 +3846,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3839,14 +3863,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3855,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3888,7 +3912,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3909,10 +3933,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3921,14 +3945,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3938,14 +3962,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3954,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3971,14 +3995,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3987,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4004,11 +4028,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4020,14 +4044,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4053,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4070,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4086,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,11 +4127,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4126,7 +4150,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4136,14 +4160,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4152,14 +4176,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,14 +4193,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4185,14 +4209,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4202,11 +4226,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4225,7 +4249,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4239,7 +4263,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4251,14 +4275,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4291,7 +4315,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4305,7 +4329,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4317,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4334,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4350,31 +4374,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4383,14 +4407,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4400,14 +4424,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4416,28 +4440,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4449,14 +4473,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,14 +4490,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>106</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4489,7 +4513,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,14 +4523,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4515,14 +4539,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,14 +4556,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4548,14 +4572,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,14 +4589,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4581,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4598,14 +4622,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4614,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4631,14 +4655,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>63</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4647,14 +4671,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4687,7 +4711,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4697,14 +4721,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>109</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4713,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,14 +4754,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>145</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4753,7 +4777,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4763,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4786,7 +4810,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4796,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4829,14 +4853,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,31 +4869,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4891,18 +4915,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>19</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,28 +4935,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4951,7 +4975,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4961,14 +4985,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,14 +5001,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4994,14 +5018,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,14 +5034,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5027,11 +5051,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5043,14 +5067,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5060,14 +5084,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>306</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5076,7 +5100,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5093,14 +5117,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>191</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5109,14 +5133,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,11 +5150,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5149,7 +5173,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,14 +5183,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>46</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5192,14 +5216,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5208,14 +5232,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5225,11 +5249,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5241,14 +5265,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5258,11 +5282,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5274,14 +5298,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5291,11 +5315,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5307,14 +5331,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5324,49 +5348,148 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
+        <v>324</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>325</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>326</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>39</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>79</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q119" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>5163.6700000000001</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>322</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>323</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>324</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>197</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>39</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>317</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>328</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>329</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>39</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>79</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>5350.6700000000001</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>330</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>331</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>332</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5940,10 +6063,25 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -155,6 +155,21 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>-12.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -665,9 +680,6 @@
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -926,9 +938,6 @@
     <t>31:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -1001,7 +1010,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:38 PM</t>
+    <t>Saturday, 31 May, 2025 9:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1956,7 +1965,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2015,14 +2024,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2055,7 +2064,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2064,14 +2073,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2081,14 +2090,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2097,14 +2106,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2114,14 +2123,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2180,11 +2189,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2196,7 +2205,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2213,11 +2222,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2295,14 +2304,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2312,11 +2321,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2361,28 +2370,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2394,28 +2403,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2477,11 +2486,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2708,14 +2717,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2724,7 +2733,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2774,14 +2783,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2840,11 +2849,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2922,14 +2931,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2939,14 +2948,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2955,14 +2964,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,11 +2981,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2988,28 +2997,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3021,31 +3030,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,14 +3096,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3120,7 +3129,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3203,14 +3212,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3219,7 +3228,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3236,11 +3245,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3252,14 +3261,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,11 +3278,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3285,31 +3294,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3318,31 +3327,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3384,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3401,11 +3410,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3417,7 +3426,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3467,11 +3476,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3483,7 +3492,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3500,11 +3509,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3516,7 +3525,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3681,14 +3690,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,14 +3740,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,11 +3773,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3863,11 +3872,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3879,14 +3888,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4035,7 +4044,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4077,14 +4086,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,11 +4103,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4110,14 +4119,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,14 +4136,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>19</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,11 +4268,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,11 +4301,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,11 +4334,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4341,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4358,11 +4367,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4381,7 +4390,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,11 +4400,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,14 +4433,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4440,7 +4449,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4453,15 +4462,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4473,31 +4482,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,11 +4565,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,14 +4598,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4605,7 +4614,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4622,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,14 +4664,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4671,14 +4680,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4704,14 +4713,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,11 +4730,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,14 +4763,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>114</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4803,14 +4812,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,14 +4862,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4869,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,14 +4895,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4952,14 +4961,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,31 +4977,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5018,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5034,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5051,11 +5060,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5084,11 +5093,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5107,7 +5116,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5121,10 +5130,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,14 +5142,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5150,14 +5159,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>46</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5183,14 +5192,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5199,7 +5208,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5216,14 +5225,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>197</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,14 +5258,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5272,7 +5281,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5298,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5315,11 +5324,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5331,7 +5340,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5348,11 +5357,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>19</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5371,7 +5380,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5381,11 +5390,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5397,14 +5406,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>197</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5414,11 +5423,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5430,14 +5439,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5447,49 +5456,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>5350.6700000000001</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>330</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
         <v>331</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
         <v>332</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>39</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>84</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>5338.1700000000001</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>333</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>334</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>335</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6078,10 +6120,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -725,6 +725,9 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -821,6 +824,9 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
@@ -890,6 +896,12 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>VITATRON 30 CAPS</t>
   </si>
   <si>
@@ -1010,7 +1022,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:50 PM</t>
+    <t>Saturday, 31 May, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4159,7 +4171,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4169,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4192,7 +4204,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4214,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4251,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,11 +4313,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4317,14 +4329,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,11 +4346,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4350,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4367,11 +4379,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4383,14 +4395,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,11 +4412,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4416,14 +4428,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,11 +4445,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4449,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4466,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4495,15 +4507,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4515,31 +4527,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4555,7 +4567,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4593,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,11 +4610,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4614,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4631,14 +4643,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4647,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,14 +4692,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4697,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4713,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4730,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,14 +4758,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4763,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4779,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4796,14 +4808,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4829,14 +4841,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>114</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,7 +4857,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4862,11 +4874,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4878,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,14 +4907,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4911,14 +4923,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4928,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4944,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4961,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,14 +5006,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5010,31 +5022,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>32</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,31 +5055,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,28 +5088,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5109,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>134</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5126,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5142,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5159,14 +5171,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5175,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5192,11 +5204,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5208,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5225,14 +5237,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>316</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5241,7 +5253,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5258,14 +5270,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5274,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5291,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5307,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5324,14 +5336,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,7 +5352,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5357,14 +5369,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5373,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5390,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5406,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5423,11 +5435,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5439,14 +5451,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5456,11 +5468,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5472,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5489,49 +5501,148 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>332</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>333</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>39</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>84</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>85</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>5338.1700000000001</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>333</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>334</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>202</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>39</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>324</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>335</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>336</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>39</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>84</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>5527.1700000000001</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>337</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>338</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>339</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6125,10 +6236,25 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>AMRIZOLE 250MG 20 TAB</t>
   </si>
   <si>
@@ -545,6 +554,24 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t xml:space="preserve">GABAVERONA 400 MG  CAPS</t>
   </si>
   <si>
@@ -632,9 +659,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -701,12 +725,15 @@
     <t>66.00</t>
   </si>
   <si>
+    <t>87.7800</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
     <t>21.7800</t>
   </si>
   <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -752,9 +779,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
   </si>
   <si>
@@ -971,7 +995,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28:0</t>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1022,7 +1046,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:51 PM</t>
+    <t>Saturday, 31 May, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1960,7 +1984,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1970,14 +1994,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1986,14 +2010,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2003,14 +2027,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2036,14 +2060,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2102,14 +2126,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2142,7 +2166,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2158,7 +2182,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2175,7 +2199,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2191,7 +2215,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2290,7 +2314,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2300,14 +2324,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2316,14 +2340,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2333,14 +2357,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2349,14 +2373,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2366,11 +2390,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2403,7 +2427,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2415,20 +2439,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2436,7 +2460,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2448,20 +2472,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2488,7 +2512,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2505,7 +2529,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2521,7 +2545,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2554,7 +2578,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2571,7 +2595,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2597,14 +2621,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2613,14 +2637,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,7 +2654,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2653,7 +2677,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2663,11 +2687,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2696,11 +2720,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2719,7 +2743,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2736,7 +2760,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2752,7 +2776,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2769,7 +2793,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2828,14 +2852,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2844,14 +2868,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2861,14 +2885,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2884,7 +2908,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,7 +2918,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2917,7 +2941,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2931,7 +2955,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2943,14 +2967,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2960,14 +2984,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2983,7 +3007,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,14 +3017,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3016,7 +3040,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3049,13 +3073,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3082,13 +3106,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3096,10 +3120,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3115,7 +3139,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3129,10 +3153,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>160</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3148,7 +3172,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3165,7 +3189,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3198,7 +3222,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3214,7 +3238,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,14 +3248,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3247,7 +3271,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3313,7 +3337,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,11 +3347,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3339,31 +3363,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3379,7 +3403,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3396,7 +3420,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3412,7 +3436,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3445,13 +3469,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3478,7 +3502,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3511,7 +3535,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3521,14 +3545,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3537,14 +3561,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,14 +3578,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3587,11 +3611,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3603,14 +3627,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3620,11 +3644,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3636,14 +3660,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3653,11 +3677,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3669,14 +3693,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3686,14 +3710,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3719,11 +3743,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3735,7 +3759,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3785,14 +3809,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3818,7 +3842,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3841,7 +3865,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3851,7 +3875,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3884,11 +3908,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3900,14 +3924,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3917,11 +3941,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3933,7 +3957,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3950,14 +3974,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,14 +4007,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3999,14 +4023,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4082,11 +4106,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4115,14 +4139,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4131,14 +4155,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4148,14 +4172,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4164,14 +4188,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4181,14 +4205,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4197,14 +4221,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4214,14 +4238,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4230,14 +4254,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4247,14 +4271,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4263,14 +4287,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4280,11 +4304,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4296,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4313,14 +4337,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,14 +4353,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,14 +4370,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4362,7 +4386,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4379,14 +4403,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,11 +4436,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4435,7 +4459,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4445,11 +4469,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4461,14 +4485,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,11 +4502,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4494,14 +4518,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4511,14 +4535,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4534,24 +4558,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4560,14 +4584,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,11 +4601,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4593,14 +4617,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4610,11 +4634,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4626,7 +4650,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4639,15 +4663,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4659,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4700,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4716,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4725,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4742,14 +4766,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4765,7 +4789,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,11 +4799,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4791,14 +4815,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,11 +4832,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4824,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,14 +4865,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,14 +4881,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,11 +4898,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>71</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4890,14 +4914,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,14 +4931,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4930,7 +4954,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4940,14 +4964,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4956,7 +4980,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4973,7 +4997,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4996,7 +5020,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>180</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5006,14 +5030,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,14 +5046,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,14 +5063,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5079,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5096,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5095,7 +5119,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5129,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5134,18 +5158,18 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>32</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,31 +5178,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,28 +5211,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5220,14 +5244,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,14 +5261,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>49</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5253,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,14 +5294,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5286,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5303,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5319,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5336,14 +5360,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>320</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5352,7 +5376,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5369,14 +5393,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>202</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5385,14 +5409,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5402,11 +5426,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5418,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,14 +5459,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5451,7 +5475,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5468,14 +5492,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5484,14 +5508,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,11 +5525,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5517,14 +5541,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,11 +5558,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5550,14 +5574,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5567,11 +5591,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5583,14 +5607,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>336</v>
+        <v>26</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5600,49 +5624,148 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>84</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>5527.1700000000001</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>337</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>338</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>339</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>340</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>341</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>39</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>87</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>342</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>211</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>39</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>332</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>343</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>344</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>39</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>87</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>5750.3000000000002</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>345</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>346</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>347</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6251,10 +6374,25 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -1046,7 +1046,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:54 PM</t>
+    <t>Saturday, 31 May, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5595,10 +5595,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5735,7 +5735,7 @@
     </row>
     <row r="130" ht="24.75" customHeight="1">
       <c r="P130" s="13">
-        <v>5750.3000000000002</v>
+        <v>5765.3000000000002</v>
       </c>
       <c r="Q130" s="13"/>
     </row>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -1031,6 +1031,9 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>معجون اسنان بارودونتكس 20 مل</t>
+  </si>
+  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
@@ -1046,7 +1049,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:56 PM</t>
+    <t>Saturday, 31 May, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5647,7 +5650,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5673,14 +5676,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5690,11 +5693,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5713,7 +5716,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>344</v>
+        <v>211</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5723,49 +5726,82 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>344</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>345</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>39</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>87</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>88</v>
       </c>
-      <c t="s" r="Q129" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>5765.3000000000002</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>345</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>5800.3000000000002</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
         <v>346</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
         <v>347</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>348</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6389,10 +6425,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>ADWITINE 30 MG 30 CAPS.</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -398,9 +407,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -431,9 +437,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -464,7 +467,7 @@
     <t>101.00</t>
   </si>
   <si>
-    <t>50.5000</t>
+    <t>101.0000</t>
   </si>
   <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
@@ -491,456 +494,477 @@
     <t>150.00</t>
   </si>
   <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>E-YEAST 20 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:10</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GABALEPSY 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABAVERONA 400 MG  CAPS</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLYCODAL 30 CHEW. TAB</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>18.8100</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:18</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.2400</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>87.7800</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OMEZ 10MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>246.00</t>
+  </si>
+  <si>
+    <t>39.3600</t>
+  </si>
+  <si>
+    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>RHINOPRO SYRUP 90ML</t>
+  </si>
+  <si>
+    <t>RYLTRIS</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
+  </si>
+  <si>
+    <t>75.9000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>81.1800</t>
+  </si>
+  <si>
+    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRYPTIZOL 25MG 30 TAB</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>VIATRAZO 80 MG 3 VAG. SUPP.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>VITATRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>66.3000</t>
+  </si>
+  <si>
     <t>0:4</t>
   </si>
   <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>EXOSIRYLIC 500 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>E-YEAST 20 CAPS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:10</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLUNZAPINE 6/50 MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GABALEPSY 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABAVERONA 400 MG  CAPS</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLYCODAL 30 CHEW. TAB</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>18.8100</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:18</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MUCOSOL PED. 125MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>87.7800</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OMEZ 10MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PLAQUENIL 200MG 60 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>246.00</t>
-  </si>
-  <si>
-    <t>39.3600</t>
-  </si>
-  <si>
-    <t>PRISMAVEN 100 MG 30 EXT. REL. TAB.</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>RHINOPRO SYRUP 90ML</t>
-  </si>
-  <si>
-    <t>RYLTRIS</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>THIOTACID 600 ORIGINAL 30 TAB.</t>
-  </si>
-  <si>
-    <t>75.9000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>81.1800</t>
-  </si>
-  <si>
-    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRYPTIZOL 25MG 30 TAB</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>VIATRAZO 80 MG 3 VAG. SUPP.</t>
-  </si>
-  <si>
-    <t>53.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>VIRUSTAT 200MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>61.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>VITATRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>66.3000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -983,6 +1007,12 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>44:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -1001,9 +1031,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>فرش اسنان اورال بي</t>
   </si>
   <si>
@@ -1031,6 +1058,12 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
     <t>معجون اسنان بارودونتكس 20 مل</t>
   </si>
   <si>
@@ -1049,7 +1082,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 9:57 PM</t>
+    <t>Saturday, 31 May, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1806,7 +1839,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1822,7 +1855,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1832,14 +1865,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1855,7 +1888,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1865,14 +1898,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1894,18 +1927,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1914,28 +1947,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1947,14 +1980,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1964,14 +1997,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1980,14 +2013,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1997,11 +2030,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -2013,14 +2046,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2037,7 +2070,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2046,14 +2079,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2063,14 +2096,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2079,14 +2112,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2096,14 +2129,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2112,14 +2145,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2129,14 +2162,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2145,14 +2178,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2162,14 +2195,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2178,14 +2211,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2202,7 +2235,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2218,7 +2251,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2235,7 +2268,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2251,7 +2284,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2261,14 +2294,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2277,14 +2310,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2350,7 +2383,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2360,14 +2393,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2376,14 +2409,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2393,14 +2426,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,14 +2442,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2426,11 +2459,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2442,14 +2475,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2463,7 +2496,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2475,20 +2508,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2496,7 +2529,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2508,20 +2541,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2548,7 +2581,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2565,7 +2598,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2581,7 +2614,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2631,7 +2664,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2647,7 +2680,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2657,14 +2690,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2673,14 +2706,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2690,7 +2723,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2713,7 +2746,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,11 +2756,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2739,14 +2772,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,11 +2789,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2779,7 +2812,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2796,7 +2829,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2812,7 +2845,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,14 +2855,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2838,14 +2871,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,14 +2888,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2878,7 +2911,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,14 +2921,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2921,14 +2954,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2937,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,11 +2987,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2970,14 +3003,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,11 +3020,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3003,14 +3036,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,14 +3053,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3036,14 +3069,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,14 +3086,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3069,14 +3102,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3086,14 +3119,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3102,28 +3135,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3135,31 +3168,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3168,14 +3201,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3185,14 +3218,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3234,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,14 +3251,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3234,14 +3267,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3251,14 +3284,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3267,14 +3300,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3284,14 +3317,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3300,14 +3333,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,14 +3350,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3333,14 +3366,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3350,11 +3383,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3366,14 +3399,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3383,11 +3416,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3406,7 +3439,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3416,14 +3449,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3432,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,11 +3482,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3465,28 +3498,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3498,31 +3531,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3531,14 +3564,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,14 +3581,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3564,14 +3597,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3581,11 +3614,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3597,14 +3630,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3614,14 +3647,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3630,14 +3663,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3647,14 +3680,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3670,7 +3703,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3703,7 +3736,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3713,11 +3746,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3729,14 +3762,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3746,11 +3779,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3762,14 +3795,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3779,11 +3812,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3802,7 +3835,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3812,14 +3845,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3828,14 +3861,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3845,11 +3878,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3861,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3878,14 +3911,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3911,7 +3944,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3934,7 +3967,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3944,14 +3977,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3967,7 +4000,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3977,14 +4010,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3993,14 +4026,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4010,11 +4043,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4026,14 +4059,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4043,14 +4076,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4059,14 +4092,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4076,11 +4109,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4092,14 +4125,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4109,14 +4142,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4125,14 +4158,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4142,14 +4175,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4165,7 +4198,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4175,14 +4208,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4198,7 +4231,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4215,7 +4248,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4231,7 +4264,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4241,14 +4274,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4257,14 +4290,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4274,11 +4307,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4290,14 +4323,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4307,14 +4340,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4323,14 +4356,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4340,14 +4373,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4356,14 +4389,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4373,14 +4406,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4389,14 +4422,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4406,11 +4439,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4422,14 +4455,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4439,14 +4472,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4455,14 +4488,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4472,14 +4505,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4488,14 +4521,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4505,11 +4538,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4521,14 +4554,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4538,11 +4571,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4561,7 +4594,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4571,11 +4604,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4587,14 +4620,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4604,11 +4637,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4620,14 +4653,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4637,14 +4670,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4653,31 +4686,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4686,14 +4719,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4703,14 +4736,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4719,28 +4752,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4752,14 +4785,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4769,14 +4802,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4785,14 +4818,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4802,11 +4835,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4818,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4835,14 +4868,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4851,14 +4884,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4868,14 +4901,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4884,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4901,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>71</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4917,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4934,14 +4967,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4950,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4967,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4983,14 +5016,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5000,14 +5033,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5023,7 +5056,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5033,14 +5066,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5049,7 +5082,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5066,11 +5099,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5082,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5099,14 +5132,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5122,7 +5155,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5132,14 +5165,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5148,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5165,14 +5198,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>160</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5188,7 +5221,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5198,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5214,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5231,14 +5264,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5247,31 +5280,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>32</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5280,31 +5313,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5313,28 +5346,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5346,31 +5379,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5379,31 +5412,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5412,28 +5445,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5445,31 +5478,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>328</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5478,31 +5511,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>26</v>
+        <v>333</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>53</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5511,31 +5544,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5544,24 +5577,24 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>101</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5577,31 +5610,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>32</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5610,31 +5643,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5650,21 +5683,21 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>87</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5676,28 +5709,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5709,31 +5742,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5742,66 +5775,231 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>345</v>
+        <v>30</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>87</v>
+        <v>347</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>88</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>5800.3000000000002</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>346</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>347</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>348</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>349</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>350</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>43</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>105</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>351</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>216</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>43</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>90</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>352</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>353</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>43</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>90</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>354</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>216</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>43</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>341</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>355</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>356</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>43</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>90</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6090.1599999999999</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>357</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>358</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>359</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6430,10 +6628,35 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -215,120 +215,126 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>0:6</t>
+    <t>0:5</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BILICHOL 24 CAPS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>-36.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BILICHOL 24 CAPS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>BRONCHICUM ELIXIR 100 ML</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>BRONCHOPRO 15MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>CARBIMAZOLE B.P 2007 5 MG 50 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:4</t>
-  </si>
-  <si>
-    <t>-36.0000</t>
-  </si>
-  <si>
-    <t>0:-3</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -458,9 +464,6 @@
     <t>10:2</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -962,9 +965,6 @@
     <t>66.3000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -995,9 +995,6 @@
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
-    <t>31:0</t>
-  </si>
-  <si>
     <t>جهاز ريد</t>
   </si>
   <si>
@@ -1010,7 +1007,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>44:0</t>
+    <t>43:0</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -1031,6 +1028,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجات دواء 5 سم</t>
+  </si>
+  <si>
+    <t>75:0</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>فرش اسنان اورال بي</t>
   </si>
   <si>
@@ -1061,7 +1067,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>39:0</t>
+    <t>38:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t>معجون اسنان بارودونتكس 20 مل</t>
@@ -1082,7 +1091,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:05 PM</t>
+    <t>Saturday, 31 May, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2235,7 +2244,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2244,7 +2253,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2277,7 +2286,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2294,11 +2303,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2310,14 +2319,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2327,11 +2336,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2343,7 +2352,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2360,11 +2369,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2376,7 +2385,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2393,11 +2402,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2430,10 +2439,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2459,11 +2468,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2492,11 +2501,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2508,7 +2517,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2525,11 +2534,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2558,11 +2567,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2574,7 +2583,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2591,11 +2600,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2607,7 +2616,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2624,11 +2633,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2640,7 +2649,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2657,11 +2666,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2673,7 +2682,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2690,11 +2699,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2706,7 +2715,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2727,7 +2736,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2739,7 +2748,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2756,11 +2765,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2772,7 +2781,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2805,7 +2814,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2822,11 +2831,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2838,7 +2847,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2859,7 +2868,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>64</v>
@@ -2871,7 +2880,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2888,11 +2897,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2904,7 +2913,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2921,11 +2930,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2937,14 +2946,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2970,14 +2979,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3003,7 +3012,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3020,11 +3029,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3036,7 +3045,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3053,11 +3062,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3069,14 +3078,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3090,7 +3099,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>64</v>
@@ -3102,7 +3111,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3119,11 +3128,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3135,7 +3144,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3152,11 +3161,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3168,7 +3177,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3185,11 +3194,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3201,7 +3210,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3218,14 +3227,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3234,7 +3243,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3251,11 +3260,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3267,7 +3276,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3284,11 +3293,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3300,7 +3309,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3317,11 +3326,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3333,14 +3342,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3350,11 +3359,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>64</v>
@@ -3366,7 +3375,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3383,11 +3392,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3399,7 +3408,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3416,11 +3425,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3432,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3465,7 +3474,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3482,11 +3491,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3498,7 +3507,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3515,11 +3524,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3531,7 +3540,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3548,11 +3557,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3564,7 +3573,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3581,11 +3590,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3614,11 +3623,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3630,7 +3639,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3647,11 +3656,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3663,7 +3672,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3680,11 +3689,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3696,7 +3705,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3713,11 +3722,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3729,7 +3738,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3746,11 +3755,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3762,7 +3771,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3779,11 +3788,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3795,7 +3804,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3812,11 +3821,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3828,14 +3837,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3845,11 +3854,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3878,11 +3887,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3894,7 +3903,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3915,7 +3924,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>64</v>
@@ -3927,7 +3936,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3948,7 +3957,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3981,7 +3990,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3993,7 +4002,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4010,11 +4019,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4026,14 +4035,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4043,11 +4052,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4059,7 +4068,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4076,11 +4085,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4092,7 +4101,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4109,11 +4118,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4125,7 +4134,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4142,11 +4151,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4158,7 +4167,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4175,11 +4184,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4191,7 +4200,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4208,11 +4217,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>64</v>
@@ -4224,7 +4233,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4241,11 +4250,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>38</v>
@@ -4257,7 +4266,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4274,11 +4283,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>64</v>
@@ -4290,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4307,11 +4316,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4323,7 +4332,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4356,7 +4365,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4373,11 +4382,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4389,7 +4398,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4406,11 +4415,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4422,7 +4431,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4455,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4472,14 +4481,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4488,7 +4497,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4505,11 +4514,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4521,7 +4530,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4538,11 +4547,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4554,7 +4563,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4571,11 +4580,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4587,7 +4596,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4604,11 +4613,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4620,7 +4629,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4637,11 +4646,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4670,11 +4679,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4686,7 +4695,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4703,11 +4712,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4719,7 +4728,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4736,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4752,7 +4761,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4769,11 +4778,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4785,7 +4794,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4802,11 +4811,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>64</v>
@@ -4818,7 +4827,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4835,11 +4844,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4851,7 +4860,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4868,11 +4877,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4884,7 +4893,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4901,11 +4910,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4917,7 +4926,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4934,11 +4943,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4950,7 +4959,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4967,11 +4976,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>64</v>
@@ -4983,7 +4992,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5004,7 +5013,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -5016,7 +5025,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5033,11 +5042,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5049,7 +5058,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5066,11 +5075,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5082,7 +5091,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5099,11 +5108,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5115,14 +5124,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,11 +5141,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>36</v>
@@ -5148,7 +5157,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5165,11 +5174,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5181,7 +5190,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5198,11 +5207,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5214,7 +5223,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5231,11 +5240,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5247,7 +5256,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5264,11 +5273,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5280,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5297,14 +5306,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>317</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5334,10 +5343,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5363,7 +5372,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5400,7 +5409,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>36</v>
@@ -5452,7 +5461,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5466,10 +5475,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5478,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5495,11 +5504,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5532,10 +5541,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5544,7 +5553,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5561,11 +5570,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>36</v>
@@ -5577,14 +5586,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5610,7 +5619,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5634,7 +5643,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5643,7 +5652,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5660,11 +5669,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>18</v>
@@ -5676,14 +5685,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5693,11 +5702,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5709,14 +5718,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>344</v>
+        <v>36</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,11 +5735,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>53</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5749,7 +5758,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5759,14 +5768,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5775,7 +5784,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5792,14 +5801,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>347</v>
+        <v>19</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5808,14 +5817,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5825,11 +5834,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>105</v>
+        <v>349</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5848,7 +5857,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5858,14 +5867,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>91</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5874,14 +5883,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5891,11 +5900,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5907,14 +5916,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5924,11 +5933,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>341</v>
+        <v>91</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>342</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5940,14 +5949,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5957,49 +5966,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>344</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>358</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>359</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>43</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
         <v>91</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>6090.1599999999999</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>357</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>358</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>359</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>6184.8400000000001</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
+        <v>360</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
+        <v>361</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>362</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6653,10 +6695,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -452,6 +452,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -701,12 +713,6 @@
     <t>MICONAZ 2% ORAL GEL 20 GM</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -1079,9 +1085,6 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>14:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -1091,7 +1094,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:06 PM</t>
+    <t>Saturday, 31 May, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3052,7 +3055,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3062,14 +3065,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3095,14 +3098,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3111,14 +3114,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3128,14 +3131,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3161,14 +3164,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3177,28 +3180,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3210,31 +3213,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3250,7 +3253,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3267,7 +3270,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3293,14 +3296,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3309,7 +3312,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3342,14 +3345,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3359,14 +3362,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3375,14 +3378,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3392,14 +3395,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3408,7 +3411,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3425,11 +3428,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3458,11 +3461,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3491,14 +3494,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3524,11 +3527,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3540,28 +3543,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3573,31 +3576,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3606,14 +3609,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3623,14 +3626,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3639,14 +3642,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3656,11 +3659,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3672,14 +3675,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3689,11 +3692,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3705,7 +3708,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3722,14 +3725,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3738,14 +3741,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3755,11 +3758,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3788,11 +3791,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3804,7 +3807,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3821,11 +3824,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3877,7 +3880,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3887,11 +3890,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3920,14 +3923,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3936,14 +3939,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3953,14 +3956,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3986,14 +3989,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4019,14 +4022,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4052,11 +4055,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4118,14 +4121,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,11 +4154,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4167,14 +4170,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4184,11 +4187,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4200,14 +4203,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4217,14 +4220,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4240,7 +4243,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4250,14 +4253,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4266,14 +4269,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4283,14 +4286,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4306,7 +4309,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4316,14 +4319,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4332,14 +4335,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4349,11 +4352,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4405,7 +4408,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4415,14 +4418,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4431,14 +4434,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,11 +4451,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4464,14 +4467,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4481,14 +4484,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4497,14 +4500,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4518,10 +4521,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4530,14 +4533,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4547,14 +4550,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4563,14 +4566,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,11 +4583,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4596,14 +4599,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4613,11 +4616,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4629,14 +4632,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,11 +4649,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4669,7 +4672,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,11 +4682,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4695,14 +4698,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,11 +4715,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4728,14 +4731,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4745,14 +4748,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4761,7 +4764,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4774,15 +4777,15 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4794,31 +4797,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>119</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4834,7 +4837,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4847,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>119</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4860,14 +4863,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4877,11 +4880,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4893,14 +4896,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4910,11 +4913,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4926,14 +4929,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,14 +4946,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4976,14 +4979,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,14 +4995,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5009,14 +5012,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>74</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5025,14 +5028,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5042,14 +5045,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5065,7 +5068,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5075,11 +5078,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5098,7 +5101,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5108,14 +5111,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5124,14 +5127,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,14 +5144,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5157,14 +5160,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,14 +5177,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5190,7 +5193,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5207,14 +5210,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>171</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5240,14 +5243,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5263,7 +5266,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,14 +5276,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5296,7 +5299,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,14 +5309,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,14 +5325,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5339,14 +5342,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>192</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>183</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5355,14 +5358,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,14 +5375,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5395,24 +5398,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>30</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5438,14 +5441,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5461,7 +5464,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>109</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5471,14 +5474,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5487,14 +5490,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5504,14 +5507,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>329</v>
+        <v>56</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5520,14 +5523,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>332</v>
+        <v>141</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5537,14 +5540,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>53</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5560,7 +5563,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>30</v>
+        <v>334</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5570,11 +5573,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>53</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>36</v>
@@ -5593,7 +5596,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5603,14 +5606,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5619,14 +5622,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5636,14 +5639,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>320</v>
+        <v>53</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>337</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5669,14 +5672,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>18</v>
+        <v>339</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5685,14 +5688,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>340</v>
+        <v>30</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5702,14 +5705,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5718,14 +5721,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,11 +5738,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5751,14 +5754,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>346</v>
+        <v>36</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5768,11 +5771,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>53</v>
+        <v>345</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5791,7 +5794,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5801,14 +5804,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5817,7 +5820,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5834,14 +5837,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5850,14 +5853,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,14 +5870,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>106</v>
+        <v>351</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5883,14 +5886,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>217</v>
+        <v>354</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5900,14 +5903,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>92</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5916,14 +5919,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>356</v>
+        <v>221</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5956,7 +5959,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5966,11 +5969,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>343</v>
+        <v>91</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>344</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>12</v>
@@ -5989,7 +5992,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>359</v>
+        <v>221</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -5999,49 +6002,82 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
+        <v>346</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>359</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>360</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>43</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>91</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q136" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" ht="25.5" customHeight="1">
-      <c r="P137" s="13">
-        <v>6184.8400000000001</v>
-      </c>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" ht="16.5" customHeight="1">
-      <c t="s" r="A138" s="14">
-        <v>360</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c t="s" r="G138" s="15">
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>6207.8400000000001</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
         <v>361</v>
       </c>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="16"/>
-      <c t="s" r="K138" s="17">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
         <v>362</v>
       </c>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>363</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6700,10 +6736,15 @@
     <mergeCell ref="H136:K136"/>
     <mergeCell ref="L136:M136"/>
     <mergeCell ref="N136:O136"/>
-    <mergeCell ref="P137:Q137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="K138:Q138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -1094,7 +1094,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:07 PM</t>
+    <t>Saturday, 31 May, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CLOSOL 10MG/ML TOPICAL SPRAY 40 ML</t>
   </si>
   <si>
@@ -659,9 +668,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
   </si>
   <si>
@@ -743,6 +749,15 @@
     <t>75.2400</t>
   </si>
   <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -824,9 +839,6 @@
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -1094,7 +1106,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:16 PM</t>
+    <t>Saturday, 31 May, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2593,7 +2605,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2610,7 +2622,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2626,7 +2638,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2643,7 +2655,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2659,7 +2671,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2692,7 +2704,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2709,7 +2721,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2725,7 +2737,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2768,7 +2780,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2791,7 +2803,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2801,11 +2813,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2834,11 +2846,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2933,14 +2945,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2966,14 +2978,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2982,14 +2994,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2999,14 +3011,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3015,14 +3027,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3032,11 +3044,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3055,7 +3067,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3102,10 +3114,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3131,14 +3143,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3187,7 +3199,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3204,7 +3216,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3220,13 +3232,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3253,13 +3265,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3270,7 +3282,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3279,14 +3291,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3319,7 +3331,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3336,7 +3348,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3369,7 +3381,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3385,7 +3397,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3418,7 +3430,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3484,7 +3496,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3494,11 +3506,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3550,7 +3562,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3583,13 +3595,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3616,13 +3628,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3633,7 +3645,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3649,7 +3661,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3659,14 +3671,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3682,7 +3694,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3692,7 +3704,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3715,7 +3727,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3765,7 +3777,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3781,7 +3793,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3791,11 +3803,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3807,7 +3819,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3824,7 +3836,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3861,7 +3873,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3873,14 +3885,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3890,11 +3902,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3923,11 +3935,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3989,14 +4001,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4012,7 +4024,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4022,14 +4034,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4038,14 +4050,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4055,14 +4067,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4078,7 +4090,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4088,11 +4100,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4104,14 +4116,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4154,14 +4166,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4187,11 +4199,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4220,11 +4232,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4236,14 +4248,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4253,14 +4265,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4276,7 +4288,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4286,14 +4298,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4319,14 +4331,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4342,7 +4354,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4359,7 +4371,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4375,7 +4387,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4385,14 +4397,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4418,11 +4430,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4434,14 +4446,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4451,14 +4463,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4500,14 +4512,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4517,14 +4529,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4550,11 +4562,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4583,14 +4595,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4616,14 +4628,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4649,11 +4661,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4682,11 +4694,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4705,7 +4717,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4715,11 +4727,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4731,14 +4743,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4748,11 +4760,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4764,14 +4776,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4781,14 +4793,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4804,13 +4816,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4821,7 +4833,7 @@
         <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4837,7 +4849,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4847,14 +4859,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4863,28 +4875,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4896,14 +4908,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4913,14 +4925,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4936,7 +4948,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4969,7 +4981,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4979,14 +4991,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4995,14 +5007,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5012,14 +5024,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5028,14 +5040,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5045,14 +5057,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5068,7 +5080,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5082,10 +5094,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5094,14 +5106,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5111,14 +5123,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5134,7 +5146,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5148,10 +5160,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5160,14 +5172,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5177,14 +5189,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5193,7 +5205,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5210,11 +5222,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5226,14 +5238,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5243,14 +5255,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5259,7 +5271,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5276,7 +5288,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5299,7 +5311,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5309,7 +5321,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5332,7 +5344,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5342,14 +5354,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5358,14 +5370,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5375,14 +5387,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>168</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>111</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5391,14 +5403,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5408,14 +5420,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5424,31 +5436,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>53</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>227</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>36</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5464,21 +5476,21 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>30</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5497,7 +5509,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>109</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5507,11 +5519,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>36</v>
@@ -5523,14 +5535,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5540,11 +5552,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5563,7 +5575,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>334</v>
+        <v>109</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5573,11 +5585,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>36</v>
@@ -5589,14 +5601,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5606,14 +5618,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5629,7 +5641,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5643,10 +5655,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5655,7 +5667,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5672,14 +5684,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>339</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5688,14 +5700,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5705,14 +5717,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>336</v>
+        <v>53</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5721,14 +5733,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>342</v>
+        <v>30</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5738,14 +5750,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q128" s="12">
         <v>343</v>
-      </c>
-      <c t="s" r="Q128" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5761,7 +5773,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5771,14 +5783,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>346</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5787,14 +5799,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5804,11 +5816,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>53</v>
+        <v>340</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5820,14 +5832,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5837,14 +5849,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>19</v>
+        <v>349</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5853,14 +5865,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5870,11 +5882,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>351</v>
+        <v>53</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>352</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5893,7 +5905,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>354</v>
+        <v>30</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5903,14 +5915,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5919,14 +5931,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>221</v>
+        <v>30</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5936,11 +5948,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>92</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5959,7 +5971,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5969,14 +5981,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5985,14 +5997,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6002,11 +6014,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>345</v>
+        <v>91</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>346</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6018,14 +6030,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6046,38 +6058,104 @@
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>6207.8400000000001</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>361</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>362</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>223</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>43</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>349</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
         <v>363</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>364</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>43</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>91</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="P140" s="13">
+        <v>6419.8400000000001</v>
+      </c>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" ht="16.5" customHeight="1">
+      <c t="s" r="A141" s="14">
+        <v>365</v>
+      </c>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c t="s" r="G141" s="15">
+        <v>366</v>
+      </c>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c t="s" r="K141" s="17">
+        <v>367</v>
+      </c>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="677">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6741,10 +6819,20 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="P140:Q140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:I141"/>
+    <mergeCell ref="K141:Q141"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -410,6 +410,9 @@
     <t>COPAD 10.000 30 CAPS.</t>
   </si>
   <si>
+    <t>C-RETARD 500MG 10 CAPS</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -482,7 +485,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>10:2</t>
+    <t>10:1</t>
+  </si>
+  <si>
+    <t>47.5200</t>
   </si>
   <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
@@ -929,6 +935,15 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t xml:space="preserve">V 1 DEODORANT </t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>VIATRAZO 80 MG 3 VAG. SUPP.</t>
   </si>
   <si>
@@ -1040,7 +1055,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34:0</t>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>35:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1106,7 +1124,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:22 PM</t>
+    <t>Saturday, 31 May, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2869,7 +2887,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2895,7 +2913,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2912,14 +2930,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2961,7 +2979,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3060,14 +3078,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3077,11 +3095,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3110,14 +3128,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3126,14 +3144,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3143,14 +3161,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3192,14 +3210,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3225,14 +3243,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3242,14 +3260,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3258,28 +3276,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3291,31 +3309,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3390,7 +3408,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3440,14 +3458,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3456,14 +3474,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3473,14 +3491,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3489,7 +3507,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3506,11 +3524,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3539,11 +3557,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3562,7 +3580,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3605,11 +3623,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3621,28 +3639,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3654,31 +3672,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3737,11 +3755,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3753,14 +3771,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3770,11 +3788,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3786,7 +3804,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3803,14 +3821,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3836,7 +3854,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3869,11 +3887,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3906,7 +3924,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3935,11 +3953,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3951,14 +3969,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3968,11 +3986,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3984,14 +4002,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4001,14 +4019,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4057,7 +4075,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4100,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4123,7 +4141,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4133,11 +4151,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4149,14 +4167,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4166,14 +4184,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4199,14 +4217,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4215,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4232,11 +4250,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4248,14 +4266,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4265,11 +4283,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4321,7 +4339,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4331,14 +4349,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4364,14 +4382,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4420,7 +4438,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4430,14 +4448,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4446,14 +4464,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4463,11 +4481,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4496,11 +4514,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4519,7 +4537,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4529,14 +4547,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4545,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4562,11 +4580,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4595,14 +4613,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4611,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4632,10 +4650,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4644,14 +4662,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4661,14 +4679,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4677,14 +4695,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4694,11 +4712,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4710,14 +4728,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4727,11 +4745,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4743,14 +4761,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4760,11 +4778,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4776,14 +4794,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4793,11 +4811,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4809,14 +4827,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>64</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4826,11 +4844,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4842,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4859,14 +4877,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4875,7 +4893,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4888,15 +4906,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4908,31 +4926,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4948,7 +4966,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4958,14 +4976,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4974,14 +4992,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4991,11 +5009,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -5007,14 +5025,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5024,11 +5042,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -5040,14 +5058,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5057,14 +5075,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5090,14 +5108,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5106,14 +5124,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5123,14 +5141,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>169</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5139,14 +5157,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5156,14 +5174,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5179,7 +5197,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5189,11 +5207,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5212,7 +5230,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5222,14 +5240,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5238,31 +5256,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5271,7 +5289,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5288,11 +5306,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5304,14 +5322,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5321,14 +5339,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5354,11 +5372,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>237</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5370,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5387,11 +5405,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5403,14 +5421,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5420,14 +5438,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5443,7 +5461,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5453,14 +5471,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>170</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>111</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5469,14 +5487,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>30</v>
+        <v>327</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5486,14 +5504,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5515,18 +5533,18 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>53</v>
+        <v>331</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>229</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>36</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5535,28 +5553,28 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5568,14 +5586,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>109</v>
+        <v>335</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5585,11 +5603,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>318</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>36</v>
@@ -5601,14 +5619,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>144</v>
+        <v>337</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5618,11 +5636,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>19</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5634,14 +5652,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>338</v>
+        <v>109</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5651,11 +5669,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>36</v>
@@ -5674,7 +5692,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5688,10 +5706,10 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5700,14 +5718,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5721,10 +5739,10 @@
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5733,7 +5751,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5750,14 +5768,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>343</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5766,14 +5784,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5783,14 +5801,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>340</v>
+        <v>53</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5799,14 +5817,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5816,14 +5834,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>12</v>
+        <v>349</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5832,14 +5850,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5849,14 +5867,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>350</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5882,11 +5900,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>53</v>
+        <v>345</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5898,14 +5916,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5915,14 +5933,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5931,14 +5949,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>30</v>
+        <v>358</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5948,11 +5966,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>355</v>
+        <v>53</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>356</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>12</v>
@@ -5964,14 +5982,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>358</v>
+        <v>30</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5981,14 +5999,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6004,7 +6022,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6014,11 +6032,11 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>91</v>
+        <v>361</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>92</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6030,14 +6048,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>151</v>
+        <v>364</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6047,14 +6065,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>92</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6063,14 +6081,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6080,11 +6098,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>349</v>
+        <v>91</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>350</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>12</v>
@@ -6096,14 +6114,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6124,38 +6142,104 @@
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
-      <c r="P140" s="13">
-        <v>6419.8400000000001</v>
-      </c>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" ht="16.5" customHeight="1">
-      <c t="s" r="A141" s="14">
-        <v>365</v>
-      </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c t="s" r="G141" s="15">
-        <v>366</v>
-      </c>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="16"/>
-      <c t="s" r="K141" s="17">
-        <v>367</v>
-      </c>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="17"/>
-      <c r="Q141" s="17"/>
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>368</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>225</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>43</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>355</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>356</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>369</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>370</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>43</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>91</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>6571.6800000000003</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>371</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>372</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>373</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="677">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6829,10 +6913,20 @@
     <mergeCell ref="H139:K139"/>
     <mergeCell ref="L139:M139"/>
     <mergeCell ref="N139:O139"/>
-    <mergeCell ref="P140:Q140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:I141"/>
-    <mergeCell ref="K141:Q141"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -1124,7 +1124,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:23 PM</t>
+    <t>Saturday, 31 May, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-31_00-00.xlsx
+++ b/DaySale_2025-05-31_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -1124,7 +1133,7 @@
     <t>41:0</t>
   </si>
   <si>
-    <t>Saturday, 31 May, 2025 10:27 PM</t>
+    <t>Saturday, 31 May, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2227,7 +2236,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2253,14 +2262,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2303,14 +2312,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2326,7 +2335,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2343,7 +2352,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2359,7 +2368,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2369,14 +2378,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2385,14 +2394,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2458,7 +2467,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2468,14 +2477,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2484,14 +2493,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2501,14 +2510,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2534,11 +2543,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2590,21 +2599,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2616,20 +2625,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2640,7 +2649,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2656,7 +2665,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2673,7 +2682,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2689,7 +2698,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2706,7 +2715,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2722,7 +2731,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2755,7 +2764,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2772,7 +2781,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2788,7 +2797,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2831,7 +2840,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2854,7 +2863,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2979,14 +2988,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3095,14 +3104,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3128,11 +3137,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3151,7 +3160,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3161,14 +3170,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3198,10 +3207,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3227,14 +3236,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3250,7 +3259,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3260,14 +3269,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3300,7 +3309,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3316,13 +3325,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3349,13 +3358,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3366,7 +3375,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3415,7 +3424,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3432,7 +3441,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3465,7 +3474,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3481,7 +3490,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3514,7 +3523,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3580,7 +3589,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3590,11 +3599,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3679,13 +3688,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3712,13 +3721,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3729,7 +3738,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3778,7 +3787,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3788,7 +3797,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3811,7 +3820,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3861,7 +3870,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3877,7 +3886,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3903,7 +3912,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3920,11 +3929,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3936,7 +3945,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3953,11 +3962,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3976,7 +3985,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4019,11 +4028,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4052,14 +4061,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s